--- a/database/industries/shishe/kehamda/balancesheet/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E7B53-434C-4FAA-8D16-76F5B9B9E69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FED53F5-33EC-42AB-A76A-42ABA348C3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل چهارم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل اول منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-12 (8)</t>
-  </si>
-  <si>
-    <t>1399-07-30</t>
-  </si>
-  <si>
-    <t>1399-12-25 (2)</t>
-  </si>
-  <si>
-    <t>1400-01-30</t>
-  </si>
-  <si>
-    <t>1401-07-20 (9)</t>
-  </si>
-  <si>
-    <t>1400-07-30</t>
-  </si>
-  <si>
     <t>1400-11-27 (2)</t>
   </si>
   <si>
     <t>1401-01-30</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-29 (5)</t>
   </si>
   <si>
     <t>1401-07-30</t>
+  </si>
+  <si>
+    <t>1401-10-29</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,15 +706,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -752,13 +719,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,13 +730,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -784,13 +741,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -798,13 +750,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -814,13 +761,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -830,13 +772,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -844,13 +781,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -870,59 +802,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -930,15 +832,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -946,199 +843,119 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>344064</v>
+        <v>594854</v>
       </c>
       <c r="E12" s="15">
-        <v>311007</v>
+        <v>554978</v>
       </c>
       <c r="F12" s="15">
-        <v>529795</v>
+        <v>632808</v>
       </c>
       <c r="G12" s="15">
-        <v>495541</v>
+        <v>436788</v>
       </c>
       <c r="H12" s="15">
-        <v>591983</v>
-      </c>
-      <c r="I12" s="15">
-        <v>590424</v>
-      </c>
-      <c r="J12" s="15">
-        <v>594854</v>
-      </c>
-      <c r="K12" s="15">
-        <v>554978</v>
-      </c>
-      <c r="L12" s="15">
-        <v>632808</v>
-      </c>
-      <c r="M12" s="15">
-        <v>436788</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>826886</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>841664</v>
+        <v>1242202</v>
       </c>
       <c r="E13" s="11">
-        <v>841664</v>
+        <v>1109455</v>
       </c>
       <c r="F13" s="11">
-        <v>1218460</v>
+        <v>1173765</v>
       </c>
       <c r="G13" s="11">
-        <v>1320443</v>
+        <v>1157783</v>
       </c>
       <c r="H13" s="11">
-        <v>1217528</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1100002</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1242202</v>
-      </c>
-      <c r="K13" s="11">
-        <v>1109455</v>
-      </c>
-      <c r="L13" s="11">
-        <v>1173765</v>
-      </c>
-      <c r="M13" s="11">
-        <v>1157783</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1996259</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1081013</v>
+        <v>2057235</v>
       </c>
       <c r="E14" s="15">
-        <v>1239451</v>
+        <v>2316488</v>
       </c>
       <c r="F14" s="15">
-        <v>962497</v>
+        <v>2078872</v>
       </c>
       <c r="G14" s="15">
-        <v>915583</v>
+        <v>3175322</v>
       </c>
       <c r="H14" s="15">
-        <v>1230950</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1764678</v>
-      </c>
-      <c r="J14" s="15">
-        <v>2057235</v>
-      </c>
-      <c r="K14" s="15">
-        <v>2316488</v>
-      </c>
-      <c r="L14" s="15">
-        <v>2078872</v>
-      </c>
-      <c r="M14" s="15">
-        <v>3175322</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3170711</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>554904</v>
+        <v>851521</v>
       </c>
       <c r="E15" s="11">
-        <v>548329</v>
+        <v>1254355</v>
       </c>
       <c r="F15" s="11">
-        <v>506419</v>
+        <v>1971786</v>
       </c>
       <c r="G15" s="11">
-        <v>601324</v>
+        <v>2679205</v>
       </c>
       <c r="H15" s="11">
-        <v>527675</v>
-      </c>
-      <c r="I15" s="11">
-        <v>839935</v>
-      </c>
-      <c r="J15" s="11">
-        <v>851521</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1254355</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1971783</v>
-      </c>
-      <c r="M15" s="11">
-        <v>2679205</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3488906</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>51749</v>
+        <v>301314</v>
       </c>
       <c r="E16" s="15">
-        <v>49396</v>
+        <v>412530</v>
       </c>
       <c r="F16" s="15">
-        <v>38470</v>
+        <v>494776</v>
       </c>
       <c r="G16" s="15">
-        <v>170625</v>
+        <v>586192</v>
       </c>
       <c r="H16" s="15">
-        <v>51366</v>
-      </c>
-      <c r="I16" s="15">
-        <v>277563</v>
-      </c>
-      <c r="J16" s="15">
-        <v>301314</v>
-      </c>
-      <c r="K16" s="15">
-        <v>412530</v>
-      </c>
-      <c r="L16" s="15">
-        <v>494776</v>
-      </c>
-      <c r="M16" s="15">
-        <v>586192</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>461699</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>32777</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
@@ -1150,135 +967,75 @@
         <v>0</v>
       </c>
       <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>368559</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>2906171</v>
+        <v>5047126</v>
       </c>
       <c r="E18" s="17">
-        <v>2989847</v>
+        <v>5647806</v>
       </c>
       <c r="F18" s="17">
-        <v>3255641</v>
+        <v>6352007</v>
       </c>
       <c r="G18" s="17">
-        <v>3503516</v>
+        <v>8035290</v>
       </c>
       <c r="H18" s="17">
-        <v>3619502</v>
-      </c>
-      <c r="I18" s="17">
-        <v>4572602</v>
-      </c>
-      <c r="J18" s="17">
-        <v>5047126</v>
-      </c>
-      <c r="K18" s="17">
-        <v>5647806</v>
-      </c>
-      <c r="L18" s="17">
-        <v>6352004</v>
-      </c>
-      <c r="M18" s="17">
-        <v>8035290</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>10313020</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>4459</v>
+        <v>5289</v>
       </c>
       <c r="E19" s="11">
-        <v>3933</v>
+        <v>2822</v>
       </c>
       <c r="F19" s="11">
-        <v>2604</v>
+        <v>1774</v>
       </c>
       <c r="G19" s="11">
-        <v>2092</v>
+        <v>1891</v>
       </c>
       <c r="H19" s="11">
-        <v>14243</v>
-      </c>
-      <c r="I19" s="11">
-        <v>14243</v>
-      </c>
-      <c r="J19" s="11">
-        <v>5289</v>
-      </c>
-      <c r="K19" s="11">
-        <v>2822</v>
-      </c>
-      <c r="L19" s="11">
-        <v>1774</v>
-      </c>
-      <c r="M19" s="11">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>269444</v>
+        <v>1149481</v>
       </c>
       <c r="E20" s="15">
-        <v>1104462</v>
+        <v>1181148</v>
       </c>
       <c r="F20" s="15">
-        <v>1104934</v>
+        <v>1178899</v>
       </c>
       <c r="G20" s="15">
-        <v>1107202</v>
+        <v>1178899</v>
       </c>
       <c r="H20" s="15">
-        <v>1109085</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1109085</v>
-      </c>
-      <c r="J20" s="15">
-        <v>1149481</v>
-      </c>
-      <c r="K20" s="15">
-        <v>1181148</v>
-      </c>
-      <c r="L20" s="15">
-        <v>1178899</v>
-      </c>
-      <c r="M20" s="15">
-        <v>1178899</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1240370</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1296,241 +1053,136 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>7542564</v>
+        <v>14368113</v>
       </c>
       <c r="E22" s="15">
-        <v>7783892</v>
+        <v>13763744</v>
       </c>
       <c r="F22" s="15">
-        <v>11587940</v>
+        <v>14067310</v>
       </c>
       <c r="G22" s="15">
-        <v>11064861</v>
+        <v>13833801</v>
       </c>
       <c r="H22" s="15">
-        <v>12641297</v>
-      </c>
-      <c r="I22" s="15">
-        <v>12848854</v>
-      </c>
-      <c r="J22" s="15">
-        <v>14368113</v>
-      </c>
-      <c r="K22" s="15">
-        <v>13763744</v>
-      </c>
-      <c r="L22" s="15">
-        <v>14067310</v>
-      </c>
-      <c r="M22" s="15">
-        <v>13833801</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12990985</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>6628</v>
+        <v>87392</v>
       </c>
       <c r="E23" s="11">
-        <v>6628</v>
+        <v>88239</v>
       </c>
       <c r="F23" s="11">
-        <v>13442</v>
+        <v>88462</v>
       </c>
       <c r="G23" s="11">
-        <v>26240</v>
+        <v>88004</v>
       </c>
       <c r="H23" s="11">
-        <v>32672</v>
-      </c>
-      <c r="I23" s="11">
-        <v>34285</v>
-      </c>
-      <c r="J23" s="11">
-        <v>87392</v>
-      </c>
-      <c r="K23" s="11">
-        <v>88239</v>
-      </c>
-      <c r="L23" s="11">
-        <v>88462</v>
-      </c>
-      <c r="M23" s="11">
-        <v>88004</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>86787</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>242515</v>
+        <v>367137</v>
       </c>
       <c r="E25" s="11">
-        <v>242515</v>
+        <v>356633</v>
       </c>
       <c r="F25" s="11">
-        <v>389369</v>
+        <v>380790</v>
       </c>
       <c r="G25" s="11">
-        <v>336719</v>
+        <v>380790</v>
       </c>
       <c r="H25" s="11">
-        <v>314554</v>
-      </c>
-      <c r="I25" s="11">
-        <v>314554</v>
-      </c>
-      <c r="J25" s="11">
-        <v>367137</v>
-      </c>
-      <c r="K25" s="11">
-        <v>356633</v>
-      </c>
-      <c r="L25" s="11">
-        <v>380790</v>
-      </c>
-      <c r="M25" s="11">
-        <v>380790</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>431476</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>8065610</v>
+        <v>15977412</v>
       </c>
       <c r="E26" s="17">
-        <v>9141430</v>
+        <v>15392586</v>
       </c>
       <c r="F26" s="17">
-        <v>13098289</v>
+        <v>15717235</v>
       </c>
       <c r="G26" s="17">
-        <v>12537114</v>
+        <v>15483385</v>
       </c>
       <c r="H26" s="17">
-        <v>14111851</v>
-      </c>
-      <c r="I26" s="17">
-        <v>14321021</v>
-      </c>
-      <c r="J26" s="17">
-        <v>15977412</v>
-      </c>
-      <c r="K26" s="17">
-        <v>15392586</v>
-      </c>
-      <c r="L26" s="17">
-        <v>15717235</v>
-      </c>
-      <c r="M26" s="17">
-        <v>15483385</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14751642</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>10971781</v>
+        <v>21024538</v>
       </c>
       <c r="E27" s="19">
-        <v>12131277</v>
+        <v>21040392</v>
       </c>
       <c r="F27" s="19">
-        <v>16353930</v>
+        <v>22069242</v>
       </c>
       <c r="G27" s="19">
-        <v>16040630</v>
+        <v>23518675</v>
       </c>
       <c r="H27" s="19">
-        <v>17731353</v>
-      </c>
-      <c r="I27" s="19">
-        <v>18893623</v>
-      </c>
-      <c r="J27" s="19">
-        <v>21024538</v>
-      </c>
-      <c r="K27" s="19">
-        <v>21040392</v>
-      </c>
-      <c r="L27" s="19">
-        <v>22069239</v>
-      </c>
-      <c r="M27" s="19">
-        <v>23518675</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>25064662</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1538,231 +1190,136 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>306091</v>
+        <v>831096</v>
       </c>
       <c r="E29" s="15">
-        <v>828536</v>
+        <v>1132900</v>
       </c>
       <c r="F29" s="15">
-        <v>700608</v>
+        <v>1036713</v>
       </c>
       <c r="G29" s="15">
-        <v>900920</v>
+        <v>1269032</v>
       </c>
       <c r="H29" s="15">
-        <v>753095</v>
-      </c>
-      <c r="I29" s="15">
-        <v>749116</v>
-      </c>
-      <c r="J29" s="15">
-        <v>831096</v>
-      </c>
-      <c r="K29" s="15">
-        <v>1132900</v>
-      </c>
-      <c r="L29" s="15">
-        <v>1035961</v>
-      </c>
-      <c r="M29" s="15">
-        <v>1269032</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1241865</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>164584</v>
+        <v>153770</v>
       </c>
       <c r="E31" s="15">
-        <v>150096</v>
+        <v>181742</v>
       </c>
       <c r="F31" s="15">
-        <v>231894</v>
+        <v>251546</v>
       </c>
       <c r="G31" s="15">
-        <v>137126</v>
+        <v>211432</v>
       </c>
       <c r="H31" s="15">
-        <v>131131</v>
-      </c>
-      <c r="I31" s="15">
-        <v>150942</v>
-      </c>
-      <c r="J31" s="15">
-        <v>153770</v>
-      </c>
-      <c r="K31" s="15">
-        <v>181742</v>
-      </c>
-      <c r="L31" s="15">
-        <v>251546</v>
-      </c>
-      <c r="M31" s="15">
-        <v>211432</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>175717</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>387242</v>
+        <v>660784</v>
       </c>
       <c r="E32" s="11">
-        <v>470373</v>
+        <v>454021</v>
       </c>
       <c r="F32" s="11">
-        <v>608950</v>
+        <v>732989</v>
       </c>
       <c r="G32" s="11">
-        <v>517528</v>
+        <v>861454</v>
       </c>
       <c r="H32" s="11">
-        <v>550449</v>
-      </c>
-      <c r="I32" s="11">
-        <v>574335</v>
-      </c>
-      <c r="J32" s="11">
-        <v>660784</v>
-      </c>
-      <c r="K32" s="11">
-        <v>454021</v>
-      </c>
-      <c r="L32" s="11">
-        <v>733741</v>
-      </c>
-      <c r="M32" s="11">
-        <v>861454</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>857579</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>195187</v>
+        <v>1284951</v>
       </c>
       <c r="E33" s="15">
-        <v>99488</v>
+        <v>991159</v>
       </c>
       <c r="F33" s="15">
-        <v>1058695</v>
+        <v>789544</v>
       </c>
       <c r="G33" s="15">
-        <v>403552</v>
+        <v>741995</v>
       </c>
       <c r="H33" s="15">
-        <v>243196</v>
-      </c>
-      <c r="I33" s="15">
-        <v>173766</v>
-      </c>
-      <c r="J33" s="15">
-        <v>1284951</v>
-      </c>
-      <c r="K33" s="15">
-        <v>991159</v>
-      </c>
-      <c r="L33" s="15">
-        <v>789544</v>
-      </c>
-      <c r="M33" s="15">
-        <v>741995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1342565</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>64491</v>
+        <v>2676172</v>
       </c>
       <c r="E34" s="11">
-        <v>77373</v>
+        <v>2573798</v>
       </c>
       <c r="F34" s="11">
-        <v>19032</v>
+        <v>2290013</v>
       </c>
       <c r="G34" s="11">
-        <v>68686</v>
+        <v>3455574</v>
       </c>
       <c r="H34" s="11">
-        <v>276842</v>
-      </c>
-      <c r="I34" s="11">
-        <v>513567</v>
-      </c>
-      <c r="J34" s="11">
-        <v>2676172</v>
-      </c>
-      <c r="K34" s="11">
-        <v>2573798</v>
-      </c>
-      <c r="L34" s="11">
-        <v>2290013</v>
-      </c>
-      <c r="M34" s="11">
-        <v>3455574</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>4032439</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1780,25 +1337,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1816,61 +1358,31 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>1117595</v>
+        <v>5606773</v>
       </c>
       <c r="E37" s="17">
-        <v>1625866</v>
+        <v>5333620</v>
       </c>
       <c r="F37" s="17">
-        <v>2619179</v>
+        <v>5100805</v>
       </c>
       <c r="G37" s="17">
-        <v>2027812</v>
+        <v>6539487</v>
       </c>
       <c r="H37" s="17">
-        <v>1954713</v>
-      </c>
-      <c r="I37" s="17">
-        <v>2161726</v>
-      </c>
-      <c r="J37" s="17">
-        <v>5606773</v>
-      </c>
-      <c r="K37" s="17">
-        <v>5333620</v>
-      </c>
-      <c r="L37" s="17">
-        <v>5100805</v>
-      </c>
-      <c r="M37" s="17">
-        <v>6539487</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7650165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1888,205 +1400,115 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>6147726</v>
+        <v>8581301</v>
       </c>
       <c r="E40" s="11">
-        <v>6282860</v>
+        <v>7979124</v>
       </c>
       <c r="F40" s="11">
-        <v>9585554</v>
+        <v>8373719</v>
       </c>
       <c r="G40" s="11">
-        <v>8831347</v>
+        <v>7450477</v>
       </c>
       <c r="H40" s="11">
-        <v>9769940</v>
-      </c>
-      <c r="I40" s="11">
-        <v>9756918</v>
-      </c>
-      <c r="J40" s="11">
-        <v>8581301</v>
-      </c>
-      <c r="K40" s="11">
-        <v>7979124</v>
-      </c>
-      <c r="L40" s="11">
-        <v>8373719</v>
-      </c>
-      <c r="M40" s="11">
-        <v>7450477</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7090031</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>13719</v>
+        <v>19226</v>
       </c>
       <c r="E41" s="15">
-        <v>17489</v>
+        <v>24444</v>
       </c>
       <c r="F41" s="15">
-        <v>14281</v>
+        <v>29256</v>
       </c>
       <c r="G41" s="15">
-        <v>17722</v>
+        <v>38399</v>
       </c>
       <c r="H41" s="15">
-        <v>19170</v>
-      </c>
-      <c r="I41" s="15">
-        <v>25171</v>
-      </c>
-      <c r="J41" s="15">
-        <v>19226</v>
-      </c>
-      <c r="K41" s="15">
-        <v>24444</v>
-      </c>
-      <c r="L41" s="15">
-        <v>29256</v>
-      </c>
-      <c r="M41" s="15">
-        <v>38399</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30172</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>6161445</v>
+        <v>8600527</v>
       </c>
       <c r="E42" s="19">
-        <v>6300349</v>
+        <v>8003568</v>
       </c>
       <c r="F42" s="19">
-        <v>9599835</v>
+        <v>8402975</v>
       </c>
       <c r="G42" s="19">
-        <v>8849069</v>
+        <v>7488876</v>
       </c>
       <c r="H42" s="19">
-        <v>9789110</v>
-      </c>
-      <c r="I42" s="19">
-        <v>9782089</v>
-      </c>
-      <c r="J42" s="19">
-        <v>8600527</v>
-      </c>
-      <c r="K42" s="19">
-        <v>8003568</v>
-      </c>
-      <c r="L42" s="19">
-        <v>8402975</v>
-      </c>
-      <c r="M42" s="19">
-        <v>7488876</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7120203</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>7279040</v>
+        <v>14207300</v>
       </c>
       <c r="E43" s="17">
-        <v>7926215</v>
+        <v>13337188</v>
       </c>
       <c r="F43" s="17">
-        <v>12219014</v>
+        <v>13503780</v>
       </c>
       <c r="G43" s="17">
-        <v>10876881</v>
+        <v>14028363</v>
       </c>
       <c r="H43" s="17">
-        <v>11743823</v>
-      </c>
-      <c r="I43" s="17">
-        <v>11943815</v>
-      </c>
-      <c r="J43" s="17">
-        <v>14207300</v>
-      </c>
-      <c r="K43" s="17">
-        <v>13337188</v>
-      </c>
-      <c r="L43" s="17">
-        <v>13503780</v>
-      </c>
-      <c r="M43" s="17">
-        <v>14028363</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>14770368</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2094,51 +1516,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>1152000</v>
+        <v>2880000</v>
       </c>
       <c r="E45" s="15">
-        <v>1152000</v>
+        <v>2880000</v>
       </c>
       <c r="F45" s="15">
-        <v>1152000</v>
+        <v>2880000</v>
       </c>
       <c r="G45" s="15">
-        <v>1152000</v>
+        <v>2880000</v>
       </c>
       <c r="H45" s="15">
         <v>2880000</v>
       </c>
-      <c r="I45" s="15">
-        <v>2880000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>2880000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>2880000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>2880000</v>
-      </c>
-      <c r="M45" s="15">
-        <v>2880000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2156,25 +1558,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2184,33 +1571,18 @@
         <v>0</v>
       </c>
       <c r="F47" s="15">
-        <v>1000072</v>
+        <v>0</v>
       </c>
       <c r="G47" s="15">
-        <v>1698324</v>
+        <v>0</v>
       </c>
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2228,25 +1600,10 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2264,61 +1621,31 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>115200</v>
+        <v>288000</v>
       </c>
       <c r="E50" s="11">
-        <v>115200</v>
+        <v>288000</v>
       </c>
       <c r="F50" s="11">
-        <v>115200</v>
+        <v>288000</v>
       </c>
       <c r="G50" s="11">
-        <v>202794</v>
+        <v>288000</v>
       </c>
       <c r="H50" s="11">
-        <v>247897</v>
-      </c>
-      <c r="I50" s="11">
-        <v>247897</v>
-      </c>
-      <c r="J50" s="11">
         <v>288000</v>
       </c>
-      <c r="K50" s="11">
-        <v>288000</v>
-      </c>
-      <c r="L50" s="11">
-        <v>288000</v>
-      </c>
-      <c r="M50" s="11">
-        <v>288000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2336,61 +1663,31 @@
       <c r="H51" s="15">
         <v>4</v>
       </c>
-      <c r="I51" s="15">
-        <v>4</v>
-      </c>
-      <c r="J51" s="15">
-        <v>4</v>
-      </c>
-      <c r="K51" s="15">
-        <v>4</v>
-      </c>
-      <c r="L51" s="15">
-        <v>4</v>
-      </c>
-      <c r="M51" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2408,61 +1705,31 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2480,131 +1747,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>2425537</v>
+        <v>3649234</v>
       </c>
       <c r="E56" s="11">
-        <v>2937858</v>
+        <v>4535200</v>
       </c>
       <c r="F56" s="11">
-        <v>1867640</v>
+        <v>5397458</v>
       </c>
       <c r="G56" s="11">
-        <v>2110627</v>
+        <v>6322308</v>
       </c>
       <c r="H56" s="11">
-        <v>2859629</v>
-      </c>
-      <c r="I56" s="11">
-        <v>3821907</v>
-      </c>
-      <c r="J56" s="11">
-        <v>3649234</v>
-      </c>
-      <c r="K56" s="11">
-        <v>4535200</v>
-      </c>
-      <c r="L56" s="11">
-        <v>5397455</v>
-      </c>
-      <c r="M56" s="11">
-        <v>6322308</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7126290</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>3692741</v>
+        <v>6817238</v>
       </c>
       <c r="E57" s="17">
-        <v>4205062</v>
+        <v>7703204</v>
       </c>
       <c r="F57" s="17">
-        <v>4134916</v>
+        <v>8565462</v>
       </c>
       <c r="G57" s="17">
-        <v>5163749</v>
+        <v>9490312</v>
       </c>
       <c r="H57" s="17">
-        <v>5987530</v>
-      </c>
-      <c r="I57" s="17">
-        <v>6949808</v>
-      </c>
-      <c r="J57" s="17">
-        <v>6817238</v>
-      </c>
-      <c r="K57" s="17">
-        <v>7703204</v>
-      </c>
-      <c r="L57" s="17">
-        <v>8565459</v>
-      </c>
-      <c r="M57" s="17">
-        <v>9490312</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+        <v>10294294</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>10971781</v>
+        <v>21024538</v>
       </c>
       <c r="E58" s="19">
-        <v>12131277</v>
+        <v>21040392</v>
       </c>
       <c r="F58" s="19">
-        <v>16353930</v>
+        <v>22069242</v>
       </c>
       <c r="G58" s="19">
-        <v>16040630</v>
+        <v>23518675</v>
       </c>
       <c r="H58" s="19">
-        <v>17731353</v>
-      </c>
-      <c r="I58" s="19">
-        <v>18893623</v>
-      </c>
-      <c r="J58" s="19">
-        <v>21024538</v>
-      </c>
-      <c r="K58" s="19">
-        <v>21040392</v>
-      </c>
-      <c r="L58" s="19">
-        <v>22069239</v>
-      </c>
-      <c r="M58" s="19">
-        <v>23518675</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+        <v>25064662</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2612,11 +1819,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/shishe/kehamda/balancesheet/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FED53F5-33EC-42AB-A76A-42ABA348C3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C746C252-3E77-46F1-A0A0-077D26A44388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,19 +70,34 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-07-30</t>
+  </si>
+  <si>
+    <t>1399-12-25 (2)</t>
+  </si>
+  <si>
+    <t>1400-01-30</t>
+  </si>
+  <si>
+    <t>1401-07-20 (9)</t>
+  </si>
+  <si>
+    <t>1400-07-30</t>
+  </si>
+  <si>
     <t>1400-11-27 (2)</t>
   </si>
   <si>
     <t>1401-01-30</t>
   </si>
   <si>
-    <t>1401-10-29 (5)</t>
+    <t>1401-12-03 (6)</t>
   </si>
   <si>
     <t>1401-07-30</t>
   </si>
   <si>
-    <t>1401-10-29</t>
+    <t>1401-12-03 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>311007</v>
+      </c>
+      <c r="E12" s="15">
+        <v>529795</v>
+      </c>
+      <c r="F12" s="15">
+        <v>495541</v>
+      </c>
+      <c r="G12" s="15">
+        <v>591983</v>
+      </c>
+      <c r="H12" s="15">
+        <v>590424</v>
+      </c>
+      <c r="I12" s="15">
         <v>594854</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>554978</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>632808</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>436788</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>826886</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>841664</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1218460</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1320443</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1217528</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1100002</v>
+      </c>
+      <c r="I13" s="11">
         <v>1242202</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>1109455</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>1173765</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>1157783</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>1996259</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>1239451</v>
+      </c>
+      <c r="E14" s="15">
+        <v>962497</v>
+      </c>
+      <c r="F14" s="15">
+        <v>915583</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1230950</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1764678</v>
+      </c>
+      <c r="I14" s="15">
         <v>2057235</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>2316488</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>2078872</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>3175322</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>3170711</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>548329</v>
+      </c>
+      <c r="E15" s="11">
+        <v>506419</v>
+      </c>
+      <c r="F15" s="11">
+        <v>601324</v>
+      </c>
+      <c r="G15" s="11">
+        <v>527675</v>
+      </c>
+      <c r="H15" s="11">
+        <v>839935</v>
+      </c>
+      <c r="I15" s="11">
         <v>851521</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>1254355</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>1971786</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>2679205</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>3488906</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>49396</v>
+      </c>
+      <c r="E16" s="15">
+        <v>38470</v>
+      </c>
+      <c r="F16" s="15">
+        <v>170625</v>
+      </c>
+      <c r="G16" s="15">
+        <v>51366</v>
+      </c>
+      <c r="H16" s="15">
+        <v>277563</v>
+      </c>
+      <c r="I16" s="15">
         <v>301314</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>412530</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>494776</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>586192</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>461699</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -967,75 +1149,135 @@
         <v>0</v>
       </c>
       <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>368559</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>2989847</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3255641</v>
+      </c>
+      <c r="F18" s="17">
+        <v>3503516</v>
+      </c>
+      <c r="G18" s="17">
+        <v>3619502</v>
+      </c>
+      <c r="H18" s="17">
+        <v>4572602</v>
+      </c>
+      <c r="I18" s="17">
         <v>5047126</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>5647806</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>6352007</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>8035290</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>10313020</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>3933</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2604</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2092</v>
+      </c>
+      <c r="G19" s="11">
+        <v>14243</v>
+      </c>
+      <c r="H19" s="11">
+        <v>14243</v>
+      </c>
+      <c r="I19" s="11">
         <v>5289</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>2822</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>1774</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>1891</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>2024</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>1104462</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1104934</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1107202</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1109085</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1109085</v>
+      </c>
+      <c r="I20" s="15">
         <v>1149481</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>1181148</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>1178899</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>1178899</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>1240370</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,136 +1295,241 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>7783892</v>
+      </c>
+      <c r="E22" s="15">
+        <v>11587940</v>
+      </c>
+      <c r="F22" s="15">
+        <v>11064861</v>
+      </c>
+      <c r="G22" s="15">
+        <v>12641297</v>
+      </c>
+      <c r="H22" s="15">
+        <v>12848854</v>
+      </c>
+      <c r="I22" s="15">
         <v>14368113</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>13763744</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>14067310</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>13833801</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>12990985</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>6628</v>
+      </c>
+      <c r="E23" s="11">
+        <v>13442</v>
+      </c>
+      <c r="F23" s="11">
+        <v>26240</v>
+      </c>
+      <c r="G23" s="11">
+        <v>32672</v>
+      </c>
+      <c r="H23" s="11">
+        <v>34285</v>
+      </c>
+      <c r="I23" s="11">
         <v>87392</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>88239</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>88462</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>88004</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>86787</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>242515</v>
+      </c>
+      <c r="E25" s="11">
+        <v>389369</v>
+      </c>
+      <c r="F25" s="11">
+        <v>336719</v>
+      </c>
+      <c r="G25" s="11">
+        <v>314554</v>
+      </c>
+      <c r="H25" s="11">
+        <v>314554</v>
+      </c>
+      <c r="I25" s="11">
         <v>367137</v>
       </c>
-      <c r="E25" s="11">
+      <c r="J25" s="11">
         <v>356633</v>
       </c>
-      <c r="F25" s="11">
+      <c r="K25" s="11">
         <v>380790</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>380790</v>
       </c>
-      <c r="H25" s="11">
+      <c r="M25" s="11">
         <v>431476</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>9141430</v>
+      </c>
+      <c r="E26" s="17">
+        <v>13098289</v>
+      </c>
+      <c r="F26" s="17">
+        <v>12537114</v>
+      </c>
+      <c r="G26" s="17">
+        <v>14111851</v>
+      </c>
+      <c r="H26" s="17">
+        <v>14321021</v>
+      </c>
+      <c r="I26" s="17">
         <v>15977412</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>15392586</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>15717235</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>15483385</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>14751642</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>12131277</v>
+      </c>
+      <c r="E27" s="19">
+        <v>16353930</v>
+      </c>
+      <c r="F27" s="19">
+        <v>16040630</v>
+      </c>
+      <c r="G27" s="19">
+        <v>17731353</v>
+      </c>
+      <c r="H27" s="19">
+        <v>18893623</v>
+      </c>
+      <c r="I27" s="19">
         <v>21024538</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>21040392</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>22069242</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>23518675</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>25064662</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,136 +1537,231 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>828536</v>
+      </c>
+      <c r="E29" s="15">
+        <v>700608</v>
+      </c>
+      <c r="F29" s="15">
+        <v>900920</v>
+      </c>
+      <c r="G29" s="15">
+        <v>753095</v>
+      </c>
+      <c r="H29" s="15">
+        <v>749116</v>
+      </c>
+      <c r="I29" s="15">
         <v>831096</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>1132900</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>1036713</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>1269032</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>1241865</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>150096</v>
+      </c>
+      <c r="E31" s="15">
+        <v>231894</v>
+      </c>
+      <c r="F31" s="15">
+        <v>137126</v>
+      </c>
+      <c r="G31" s="15">
+        <v>131131</v>
+      </c>
+      <c r="H31" s="15">
+        <v>150942</v>
+      </c>
+      <c r="I31" s="15">
         <v>153770</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>181742</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>251546</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>211432</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>175717</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>470373</v>
+      </c>
+      <c r="E32" s="11">
+        <v>608950</v>
+      </c>
+      <c r="F32" s="11">
+        <v>517528</v>
+      </c>
+      <c r="G32" s="11">
+        <v>550449</v>
+      </c>
+      <c r="H32" s="11">
+        <v>574335</v>
+      </c>
+      <c r="I32" s="11">
         <v>660784</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>454021</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>732989</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>861454</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>857579</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>99488</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1058695</v>
+      </c>
+      <c r="F33" s="15">
+        <v>403552</v>
+      </c>
+      <c r="G33" s="15">
+        <v>243196</v>
+      </c>
+      <c r="H33" s="15">
+        <v>173766</v>
+      </c>
+      <c r="I33" s="15">
         <v>1284951</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>991159</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>789544</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>741995</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>1342565</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>77373</v>
+      </c>
+      <c r="E34" s="11">
+        <v>19032</v>
+      </c>
+      <c r="F34" s="11">
+        <v>68686</v>
+      </c>
+      <c r="G34" s="11">
+        <v>276842</v>
+      </c>
+      <c r="H34" s="11">
+        <v>513567</v>
+      </c>
+      <c r="I34" s="11">
         <v>2676172</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>2573798</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>2290013</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>3455574</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>4032439</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1337,10 +1779,25 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1815,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>1625866</v>
+      </c>
+      <c r="E37" s="17">
+        <v>2619179</v>
+      </c>
+      <c r="F37" s="17">
+        <v>2027812</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1954713</v>
+      </c>
+      <c r="H37" s="17">
+        <v>2161726</v>
+      </c>
+      <c r="I37" s="17">
         <v>5606773</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>5333620</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>5100805</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>6539487</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>7650165</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,115 +1887,205 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>6282860</v>
+      </c>
+      <c r="E40" s="11">
+        <v>9585554</v>
+      </c>
+      <c r="F40" s="11">
+        <v>8831347</v>
+      </c>
+      <c r="G40" s="11">
+        <v>9769940</v>
+      </c>
+      <c r="H40" s="11">
+        <v>9756918</v>
+      </c>
+      <c r="I40" s="11">
         <v>8581301</v>
       </c>
-      <c r="E40" s="11">
+      <c r="J40" s="11">
         <v>7979124</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>8373719</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>7450477</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>7090031</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>17489</v>
+      </c>
+      <c r="E41" s="15">
+        <v>14281</v>
+      </c>
+      <c r="F41" s="15">
+        <v>17722</v>
+      </c>
+      <c r="G41" s="15">
+        <v>19170</v>
+      </c>
+      <c r="H41" s="15">
+        <v>25171</v>
+      </c>
+      <c r="I41" s="15">
         <v>19226</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>24444</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>29256</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>38399</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>30172</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>6300349</v>
+      </c>
+      <c r="E42" s="19">
+        <v>9599835</v>
+      </c>
+      <c r="F42" s="19">
+        <v>8849069</v>
+      </c>
+      <c r="G42" s="19">
+        <v>9789110</v>
+      </c>
+      <c r="H42" s="19">
+        <v>9782089</v>
+      </c>
+      <c r="I42" s="19">
         <v>8600527</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>8003568</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>8402975</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>7488876</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>7120203</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>7926215</v>
+      </c>
+      <c r="E43" s="17">
+        <v>12219014</v>
+      </c>
+      <c r="F43" s="17">
+        <v>10876881</v>
+      </c>
+      <c r="G43" s="17">
+        <v>11743823</v>
+      </c>
+      <c r="H43" s="17">
+        <v>11943815</v>
+      </c>
+      <c r="I43" s="17">
         <v>14207300</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>13337188</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>13503780</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>14028363</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>14770368</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,20 +2093,25 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>2880000</v>
+        <v>1152000</v>
       </c>
       <c r="E45" s="15">
-        <v>2880000</v>
+        <v>1152000</v>
       </c>
       <c r="F45" s="15">
-        <v>2880000</v>
+        <v>1152000</v>
       </c>
       <c r="G45" s="15">
         <v>2880000</v>
@@ -1537,10 +2119,25 @@
       <c r="H45" s="15">
         <v>2880000</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>2880000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>2880000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>2880000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>2880000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>2880000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,20 +2155,35 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
         <v>0</v>
       </c>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>1000072</v>
       </c>
       <c r="F47" s="15">
-        <v>0</v>
+        <v>1698324</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -1579,10 +2191,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1600,10 +2227,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,31 +2263,61 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>115200</v>
+      </c>
+      <c r="E50" s="11">
+        <v>115200</v>
+      </c>
+      <c r="F50" s="11">
+        <v>202794</v>
+      </c>
+      <c r="G50" s="11">
+        <v>247897</v>
+      </c>
+      <c r="H50" s="11">
+        <v>247897</v>
+      </c>
+      <c r="I50" s="11">
         <v>288000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>288000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>288000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>288000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>288000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>4</v>
+      </c>
+      <c r="J51" s="15">
+        <v>4</v>
+      </c>
+      <c r="K51" s="15">
+        <v>4</v>
+      </c>
+      <c r="L51" s="15">
+        <v>4</v>
+      </c>
+      <c r="M51" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>2937858</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1867640</v>
+      </c>
+      <c r="F56" s="11">
+        <v>2110627</v>
+      </c>
+      <c r="G56" s="11">
+        <v>2859629</v>
+      </c>
+      <c r="H56" s="11">
+        <v>3821907</v>
+      </c>
+      <c r="I56" s="11">
         <v>3649234</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>4535200</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>5397458</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>6322308</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>7126290</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>4205062</v>
+      </c>
+      <c r="E57" s="17">
+        <v>4134916</v>
+      </c>
+      <c r="F57" s="17">
+        <v>5163749</v>
+      </c>
+      <c r="G57" s="17">
+        <v>5987530</v>
+      </c>
+      <c r="H57" s="17">
+        <v>6949808</v>
+      </c>
+      <c r="I57" s="17">
         <v>6817238</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>7703204</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>8565462</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>9490312</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>10294294</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>12131277</v>
+      </c>
+      <c r="E58" s="19">
+        <v>16353930</v>
+      </c>
+      <c r="F58" s="19">
+        <v>16040630</v>
+      </c>
+      <c r="G58" s="19">
+        <v>17731353</v>
+      </c>
+      <c r="H58" s="19">
+        <v>18893623</v>
+      </c>
+      <c r="I58" s="19">
         <v>21024538</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>21040392</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>22069242</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>23518675</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>25064662</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/shishe/kehamda/balancesheet/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C746C252-3E77-46F1-A0A0-077D26A44388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB541020-DF04-4FB6-8206-2AC373B0FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل دوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل دوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-07-30</t>
-  </si>
-  <si>
     <t>1399-12-25 (2)</t>
   </si>
   <si>
@@ -91,13 +88,16 @@
     <t>1401-01-30</t>
   </si>
   <si>
-    <t>1401-12-03 (6)</t>
+    <t>1402-01-30 (7)</t>
   </si>
   <si>
     <t>1401-07-30</t>
   </si>
   <si>
     <t>1401-12-03 (2)</t>
+  </si>
+  <si>
+    <t>1402-01-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,18 +732,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +757,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +803,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +849,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +935,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,187 +951,187 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>311007</v>
+        <v>529795</v>
       </c>
       <c r="E12" s="15">
-        <v>529795</v>
+        <v>495541</v>
       </c>
       <c r="F12" s="15">
-        <v>495541</v>
+        <v>591983</v>
       </c>
       <c r="G12" s="15">
-        <v>591983</v>
+        <v>590424</v>
       </c>
       <c r="H12" s="15">
-        <v>590424</v>
+        <v>594854</v>
       </c>
       <c r="I12" s="15">
-        <v>594854</v>
+        <v>554978</v>
       </c>
       <c r="J12" s="15">
-        <v>554978</v>
+        <v>632808</v>
       </c>
       <c r="K12" s="15">
-        <v>632808</v>
+        <v>436788</v>
       </c>
       <c r="L12" s="15">
-        <v>436788</v>
+        <v>826886</v>
       </c>
       <c r="M12" s="15">
-        <v>826886</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>763215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>841664</v>
+        <v>1218460</v>
       </c>
       <c r="E13" s="11">
-        <v>1218460</v>
+        <v>1320443</v>
       </c>
       <c r="F13" s="11">
-        <v>1320443</v>
+        <v>1217528</v>
       </c>
       <c r="G13" s="11">
-        <v>1217528</v>
+        <v>1100002</v>
       </c>
       <c r="H13" s="11">
-        <v>1100002</v>
+        <v>1242202</v>
       </c>
       <c r="I13" s="11">
-        <v>1242202</v>
+        <v>1109455</v>
       </c>
       <c r="J13" s="11">
-        <v>1109455</v>
+        <v>1173765</v>
       </c>
       <c r="K13" s="11">
-        <v>1173765</v>
+        <v>1157783</v>
       </c>
       <c r="L13" s="11">
-        <v>1157783</v>
+        <v>1996259</v>
       </c>
       <c r="M13" s="11">
-        <v>1996259</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1841869</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>1239451</v>
+        <v>962497</v>
       </c>
       <c r="E14" s="15">
-        <v>962497</v>
+        <v>915583</v>
       </c>
       <c r="F14" s="15">
-        <v>915583</v>
+        <v>1230950</v>
       </c>
       <c r="G14" s="15">
-        <v>1230950</v>
+        <v>1764678</v>
       </c>
       <c r="H14" s="15">
-        <v>1764678</v>
+        <v>2057235</v>
       </c>
       <c r="I14" s="15">
-        <v>2057235</v>
+        <v>2316488</v>
       </c>
       <c r="J14" s="15">
-        <v>2316488</v>
+        <v>2078872</v>
       </c>
       <c r="K14" s="15">
-        <v>2078872</v>
+        <v>3175322</v>
       </c>
       <c r="L14" s="15">
-        <v>3175322</v>
+        <v>3170711</v>
       </c>
       <c r="M14" s="15">
-        <v>3170711</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4978442</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>548329</v>
+        <v>506419</v>
       </c>
       <c r="E15" s="11">
-        <v>506419</v>
+        <v>601324</v>
       </c>
       <c r="F15" s="11">
-        <v>601324</v>
+        <v>527675</v>
       </c>
       <c r="G15" s="11">
-        <v>527675</v>
+        <v>839935</v>
       </c>
       <c r="H15" s="11">
-        <v>839935</v>
+        <v>851521</v>
       </c>
       <c r="I15" s="11">
-        <v>851521</v>
+        <v>1254355</v>
       </c>
       <c r="J15" s="11">
-        <v>1254355</v>
+        <v>1971786</v>
       </c>
       <c r="K15" s="11">
-        <v>1971786</v>
+        <v>2679205</v>
       </c>
       <c r="L15" s="11">
-        <v>2679205</v>
+        <v>3488906</v>
       </c>
       <c r="M15" s="11">
-        <v>3488906</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3582467</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>49396</v>
+        <v>38470</v>
       </c>
       <c r="E16" s="15">
-        <v>38470</v>
+        <v>170625</v>
       </c>
       <c r="F16" s="15">
-        <v>170625</v>
+        <v>51366</v>
       </c>
       <c r="G16" s="15">
-        <v>51366</v>
+        <v>277563</v>
       </c>
       <c r="H16" s="15">
-        <v>277563</v>
+        <v>301314</v>
       </c>
       <c r="I16" s="15">
-        <v>301314</v>
+        <v>412530</v>
       </c>
       <c r="J16" s="15">
-        <v>412530</v>
+        <v>494776</v>
       </c>
       <c r="K16" s="15">
-        <v>494776</v>
+        <v>586192</v>
       </c>
       <c r="L16" s="15">
-        <v>586192</v>
+        <v>461699</v>
       </c>
       <c r="M16" s="15">
-        <v>461699</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>529394</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1161,121 +1161,121 @@
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <v>0</v>
+        <v>368559</v>
       </c>
       <c r="M17" s="11">
         <v>368559</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>2989847</v>
+        <v>3255641</v>
       </c>
       <c r="E18" s="17">
-        <v>3255641</v>
+        <v>3503516</v>
       </c>
       <c r="F18" s="17">
-        <v>3503516</v>
+        <v>3619502</v>
       </c>
       <c r="G18" s="17">
-        <v>3619502</v>
+        <v>4572602</v>
       </c>
       <c r="H18" s="17">
-        <v>4572602</v>
+        <v>5047126</v>
       </c>
       <c r="I18" s="17">
-        <v>5047126</v>
+        <v>5647806</v>
       </c>
       <c r="J18" s="17">
-        <v>5647806</v>
+        <v>6352007</v>
       </c>
       <c r="K18" s="17">
-        <v>6352007</v>
+        <v>8035290</v>
       </c>
       <c r="L18" s="17">
-        <v>8035290</v>
+        <v>10313020</v>
       </c>
       <c r="M18" s="17">
-        <v>10313020</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12063946</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>3933</v>
+        <v>2604</v>
       </c>
       <c r="E19" s="11">
-        <v>2604</v>
+        <v>2092</v>
       </c>
       <c r="F19" s="11">
-        <v>2092</v>
+        <v>14243</v>
       </c>
       <c r="G19" s="11">
         <v>14243</v>
       </c>
       <c r="H19" s="11">
-        <v>14243</v>
+        <v>5289</v>
       </c>
       <c r="I19" s="11">
-        <v>5289</v>
+        <v>2822</v>
       </c>
       <c r="J19" s="11">
-        <v>2822</v>
+        <v>1774</v>
       </c>
       <c r="K19" s="11">
-        <v>1774</v>
+        <v>1891</v>
       </c>
       <c r="L19" s="11">
-        <v>1891</v>
+        <v>2024</v>
       </c>
       <c r="M19" s="11">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>1104462</v>
+        <v>1104934</v>
       </c>
       <c r="E20" s="15">
-        <v>1104934</v>
+        <v>1107202</v>
       </c>
       <c r="F20" s="15">
-        <v>1107202</v>
+        <v>1109085</v>
       </c>
       <c r="G20" s="15">
         <v>1109085</v>
       </c>
       <c r="H20" s="15">
-        <v>1109085</v>
+        <v>1149481</v>
       </c>
       <c r="I20" s="15">
-        <v>1149481</v>
+        <v>1181148</v>
       </c>
       <c r="J20" s="15">
-        <v>1181148</v>
+        <v>1178899</v>
       </c>
       <c r="K20" s="15">
         <v>1178899</v>
       </c>
       <c r="L20" s="15">
-        <v>1178899</v>
+        <v>1240370</v>
       </c>
       <c r="M20" s="15">
-        <v>1240370</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1287165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,79 +1311,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>7783892</v>
+        <v>11587940</v>
       </c>
       <c r="E22" s="15">
-        <v>11587940</v>
+        <v>11064861</v>
       </c>
       <c r="F22" s="15">
-        <v>11064861</v>
+        <v>12641297</v>
       </c>
       <c r="G22" s="15">
-        <v>12641297</v>
+        <v>12848854</v>
       </c>
       <c r="H22" s="15">
-        <v>12848854</v>
+        <v>14368113</v>
       </c>
       <c r="I22" s="15">
-        <v>14368113</v>
+        <v>13763744</v>
       </c>
       <c r="J22" s="15">
-        <v>13763744</v>
+        <v>14067310</v>
       </c>
       <c r="K22" s="15">
-        <v>14067310</v>
+        <v>13833801</v>
       </c>
       <c r="L22" s="15">
-        <v>13833801</v>
+        <v>12990985</v>
       </c>
       <c r="M22" s="15">
-        <v>12990985</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12216556</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>6628</v>
+        <v>13442</v>
       </c>
       <c r="E23" s="11">
-        <v>13442</v>
+        <v>26240</v>
       </c>
       <c r="F23" s="11">
-        <v>26240</v>
+        <v>32672</v>
       </c>
       <c r="G23" s="11">
-        <v>32672</v>
+        <v>34285</v>
       </c>
       <c r="H23" s="11">
-        <v>34285</v>
+        <v>87392</v>
       </c>
       <c r="I23" s="11">
-        <v>87392</v>
+        <v>88239</v>
       </c>
       <c r="J23" s="11">
-        <v>88239</v>
+        <v>88462</v>
       </c>
       <c r="K23" s="11">
-        <v>88462</v>
+        <v>88004</v>
       </c>
       <c r="L23" s="11">
-        <v>88004</v>
+        <v>86787</v>
       </c>
       <c r="M23" s="11">
-        <v>86787</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>85584</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,115 +1419,115 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>242515</v>
+        <v>389369</v>
       </c>
       <c r="E25" s="11">
-        <v>389369</v>
+        <v>336719</v>
       </c>
       <c r="F25" s="11">
-        <v>336719</v>
+        <v>314554</v>
       </c>
       <c r="G25" s="11">
         <v>314554</v>
       </c>
       <c r="H25" s="11">
-        <v>314554</v>
+        <v>367137</v>
       </c>
       <c r="I25" s="11">
-        <v>367137</v>
+        <v>356633</v>
       </c>
       <c r="J25" s="11">
-        <v>356633</v>
+        <v>380790</v>
       </c>
       <c r="K25" s="11">
         <v>380790</v>
       </c>
       <c r="L25" s="11">
+        <v>431476</v>
+      </c>
+      <c r="M25" s="11">
         <v>380790</v>
       </c>
-      <c r="M25" s="11">
-        <v>431476</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>9141430</v>
+        <v>13098289</v>
       </c>
       <c r="E26" s="17">
-        <v>13098289</v>
+        <v>12537114</v>
       </c>
       <c r="F26" s="17">
-        <v>12537114</v>
+        <v>14111851</v>
       </c>
       <c r="G26" s="17">
-        <v>14111851</v>
+        <v>14321021</v>
       </c>
       <c r="H26" s="17">
-        <v>14321021</v>
+        <v>15977412</v>
       </c>
       <c r="I26" s="17">
-        <v>15977412</v>
+        <v>15392586</v>
       </c>
       <c r="J26" s="17">
-        <v>15392586</v>
+        <v>15717235</v>
       </c>
       <c r="K26" s="17">
-        <v>15717235</v>
+        <v>15483385</v>
       </c>
       <c r="L26" s="17">
-        <v>15483385</v>
+        <v>14751642</v>
       </c>
       <c r="M26" s="17">
-        <v>14751642</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13973721</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>12131277</v>
+        <v>16353930</v>
       </c>
       <c r="E27" s="19">
-        <v>16353930</v>
+        <v>16040630</v>
       </c>
       <c r="F27" s="19">
-        <v>16040630</v>
+        <v>17731353</v>
       </c>
       <c r="G27" s="19">
-        <v>17731353</v>
+        <v>18893623</v>
       </c>
       <c r="H27" s="19">
-        <v>18893623</v>
+        <v>21024538</v>
       </c>
       <c r="I27" s="19">
-        <v>21024538</v>
+        <v>21040392</v>
       </c>
       <c r="J27" s="19">
-        <v>21040392</v>
+        <v>22069242</v>
       </c>
       <c r="K27" s="19">
-        <v>22069242</v>
+        <v>23518675</v>
       </c>
       <c r="L27" s="19">
-        <v>23518675</v>
+        <v>25064662</v>
       </c>
       <c r="M27" s="19">
-        <v>25064662</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>26037667</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,43 +1543,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>828536</v>
+        <v>700608</v>
       </c>
       <c r="E29" s="15">
-        <v>700608</v>
+        <v>900920</v>
       </c>
       <c r="F29" s="15">
-        <v>900920</v>
+        <v>753095</v>
       </c>
       <c r="G29" s="15">
-        <v>753095</v>
+        <v>749116</v>
       </c>
       <c r="H29" s="15">
-        <v>749116</v>
+        <v>831096</v>
       </c>
       <c r="I29" s="15">
-        <v>831096</v>
+        <v>1132900</v>
       </c>
       <c r="J29" s="15">
-        <v>1132900</v>
+        <v>1036713</v>
       </c>
       <c r="K29" s="15">
-        <v>1036713</v>
+        <v>1269032</v>
       </c>
       <c r="L29" s="15">
-        <v>1269032</v>
+        <v>1241865</v>
       </c>
       <c r="M29" s="15">
-        <v>1241865</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1537370</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,151 +1615,151 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>150096</v>
+        <v>231894</v>
       </c>
       <c r="E31" s="15">
-        <v>231894</v>
+        <v>137126</v>
       </c>
       <c r="F31" s="15">
-        <v>137126</v>
+        <v>131131</v>
       </c>
       <c r="G31" s="15">
-        <v>131131</v>
+        <v>150942</v>
       </c>
       <c r="H31" s="15">
-        <v>150942</v>
+        <v>153770</v>
       </c>
       <c r="I31" s="15">
-        <v>153770</v>
+        <v>181742</v>
       </c>
       <c r="J31" s="15">
-        <v>181742</v>
+        <v>251546</v>
       </c>
       <c r="K31" s="15">
-        <v>251546</v>
+        <v>211432</v>
       </c>
       <c r="L31" s="15">
-        <v>211432</v>
+        <v>175717</v>
       </c>
       <c r="M31" s="15">
-        <v>175717</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>263083</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>470373</v>
+        <v>608950</v>
       </c>
       <c r="E32" s="11">
-        <v>608950</v>
+        <v>517528</v>
       </c>
       <c r="F32" s="11">
-        <v>517528</v>
+        <v>550449</v>
       </c>
       <c r="G32" s="11">
-        <v>550449</v>
+        <v>574335</v>
       </c>
       <c r="H32" s="11">
-        <v>574335</v>
+        <v>660784</v>
       </c>
       <c r="I32" s="11">
-        <v>660784</v>
+        <v>454021</v>
       </c>
       <c r="J32" s="11">
-        <v>454021</v>
+        <v>732989</v>
       </c>
       <c r="K32" s="11">
-        <v>732989</v>
+        <v>861454</v>
       </c>
       <c r="L32" s="11">
-        <v>861454</v>
+        <v>857579</v>
       </c>
       <c r="M32" s="11">
-        <v>857579</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1132517</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>99488</v>
+        <v>1058695</v>
       </c>
       <c r="E33" s="15">
-        <v>1058695</v>
+        <v>403552</v>
       </c>
       <c r="F33" s="15">
-        <v>403552</v>
+        <v>243196</v>
       </c>
       <c r="G33" s="15">
-        <v>243196</v>
+        <v>173766</v>
       </c>
       <c r="H33" s="15">
-        <v>173766</v>
+        <v>1284951</v>
       </c>
       <c r="I33" s="15">
-        <v>1284951</v>
+        <v>991159</v>
       </c>
       <c r="J33" s="15">
-        <v>991159</v>
+        <v>789544</v>
       </c>
       <c r="K33" s="15">
-        <v>789544</v>
+        <v>741995</v>
       </c>
       <c r="L33" s="15">
-        <v>741995</v>
+        <v>1342565</v>
       </c>
       <c r="M33" s="15">
-        <v>1342565</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1064814</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>77373</v>
+        <v>19032</v>
       </c>
       <c r="E34" s="11">
-        <v>19032</v>
+        <v>68686</v>
       </c>
       <c r="F34" s="11">
-        <v>68686</v>
+        <v>276842</v>
       </c>
       <c r="G34" s="11">
-        <v>276842</v>
+        <v>513567</v>
       </c>
       <c r="H34" s="11">
-        <v>513567</v>
+        <v>2676172</v>
       </c>
       <c r="I34" s="11">
-        <v>2676172</v>
+        <v>2573798</v>
       </c>
       <c r="J34" s="11">
-        <v>2573798</v>
+        <v>2290013</v>
       </c>
       <c r="K34" s="11">
-        <v>2290013</v>
+        <v>3455574</v>
       </c>
       <c r="L34" s="11">
-        <v>3455574</v>
+        <v>4032439</v>
       </c>
       <c r="M34" s="11">
-        <v>4032439</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4922096</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,43 +1831,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>1625866</v>
+        <v>2619179</v>
       </c>
       <c r="E37" s="17">
-        <v>2619179</v>
+        <v>2027812</v>
       </c>
       <c r="F37" s="17">
-        <v>2027812</v>
+        <v>1954713</v>
       </c>
       <c r="G37" s="17">
-        <v>1954713</v>
+        <v>2161726</v>
       </c>
       <c r="H37" s="17">
-        <v>2161726</v>
+        <v>5606773</v>
       </c>
       <c r="I37" s="17">
-        <v>5606773</v>
+        <v>5333620</v>
       </c>
       <c r="J37" s="17">
-        <v>5333620</v>
+        <v>5100805</v>
       </c>
       <c r="K37" s="17">
-        <v>5100805</v>
+        <v>6539487</v>
       </c>
       <c r="L37" s="17">
-        <v>6539487</v>
+        <v>7650165</v>
       </c>
       <c r="M37" s="17">
-        <v>7650165</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>8919880</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,151 +1939,151 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>6282860</v>
+        <v>9585554</v>
       </c>
       <c r="E40" s="11">
-        <v>9585554</v>
+        <v>8831347</v>
       </c>
       <c r="F40" s="11">
-        <v>8831347</v>
+        <v>9769940</v>
       </c>
       <c r="G40" s="11">
-        <v>9769940</v>
+        <v>9756918</v>
       </c>
       <c r="H40" s="11">
-        <v>9756918</v>
+        <v>8581301</v>
       </c>
       <c r="I40" s="11">
-        <v>8581301</v>
+        <v>7979124</v>
       </c>
       <c r="J40" s="11">
-        <v>7979124</v>
+        <v>8373719</v>
       </c>
       <c r="K40" s="11">
-        <v>8373719</v>
+        <v>7450477</v>
       </c>
       <c r="L40" s="11">
-        <v>7450477</v>
+        <v>7090031</v>
       </c>
       <c r="M40" s="11">
-        <v>7090031</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5601544</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>17489</v>
+        <v>14281</v>
       </c>
       <c r="E41" s="15">
-        <v>14281</v>
+        <v>17722</v>
       </c>
       <c r="F41" s="15">
-        <v>17722</v>
+        <v>19170</v>
       </c>
       <c r="G41" s="15">
-        <v>19170</v>
+        <v>25171</v>
       </c>
       <c r="H41" s="15">
-        <v>25171</v>
+        <v>19226</v>
       </c>
       <c r="I41" s="15">
-        <v>19226</v>
+        <v>24444</v>
       </c>
       <c r="J41" s="15">
-        <v>24444</v>
+        <v>29256</v>
       </c>
       <c r="K41" s="15">
-        <v>29256</v>
+        <v>38399</v>
       </c>
       <c r="L41" s="15">
-        <v>38399</v>
+        <v>30172</v>
       </c>
       <c r="M41" s="15">
-        <v>30172</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>39168</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>6300349</v>
+        <v>9599835</v>
       </c>
       <c r="E42" s="19">
-        <v>9599835</v>
+        <v>8849069</v>
       </c>
       <c r="F42" s="19">
-        <v>8849069</v>
+        <v>9789110</v>
       </c>
       <c r="G42" s="19">
-        <v>9789110</v>
+        <v>9782089</v>
       </c>
       <c r="H42" s="19">
-        <v>9782089</v>
+        <v>8600527</v>
       </c>
       <c r="I42" s="19">
-        <v>8600527</v>
+        <v>8003568</v>
       </c>
       <c r="J42" s="19">
-        <v>8003568</v>
+        <v>8402975</v>
       </c>
       <c r="K42" s="19">
-        <v>8402975</v>
+        <v>7488876</v>
       </c>
       <c r="L42" s="19">
-        <v>7488876</v>
+        <v>7120203</v>
       </c>
       <c r="M42" s="19">
-        <v>7120203</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5640712</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>7926215</v>
+        <v>12219014</v>
       </c>
       <c r="E43" s="17">
-        <v>12219014</v>
+        <v>10876881</v>
       </c>
       <c r="F43" s="17">
-        <v>10876881</v>
+        <v>11743823</v>
       </c>
       <c r="G43" s="17">
-        <v>11743823</v>
+        <v>11943815</v>
       </c>
       <c r="H43" s="17">
-        <v>11943815</v>
+        <v>14207300</v>
       </c>
       <c r="I43" s="17">
-        <v>14207300</v>
+        <v>13337188</v>
       </c>
       <c r="J43" s="17">
-        <v>13337188</v>
+        <v>13503780</v>
       </c>
       <c r="K43" s="17">
-        <v>13503780</v>
+        <v>14028363</v>
       </c>
       <c r="L43" s="17">
-        <v>14028363</v>
+        <v>14770368</v>
       </c>
       <c r="M43" s="17">
-        <v>14770368</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14560592</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>1152000</v>
       </c>
       <c r="F45" s="15">
-        <v>1152000</v>
+        <v>2880000</v>
       </c>
       <c r="G45" s="15">
         <v>2880000</v>
@@ -2132,10 +2132,10 @@
         <v>2880000</v>
       </c>
       <c r="M45" s="15">
-        <v>2880000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
-        <v>0</v>
+        <v>1000072</v>
       </c>
       <c r="E47" s="15">
-        <v>1000072</v>
+        <v>1698324</v>
       </c>
       <c r="F47" s="15">
-        <v>1698324</v>
+        <v>0</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2288,16 +2288,16 @@
         <v>115200</v>
       </c>
       <c r="E50" s="11">
-        <v>115200</v>
+        <v>202794</v>
       </c>
       <c r="F50" s="11">
-        <v>202794</v>
+        <v>247897</v>
       </c>
       <c r="G50" s="11">
         <v>247897</v>
       </c>
       <c r="H50" s="11">
-        <v>247897</v>
+        <v>288000</v>
       </c>
       <c r="I50" s="11">
         <v>288000</v>
@@ -2312,10 +2312,10 @@
         <v>288000</v>
       </c>
       <c r="M50" s="11">
-        <v>288000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>464781</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,115 +2495,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>2937858</v>
+        <v>1867640</v>
       </c>
       <c r="E56" s="11">
-        <v>1867640</v>
+        <v>2110627</v>
       </c>
       <c r="F56" s="11">
-        <v>2110627</v>
+        <v>2859629</v>
       </c>
       <c r="G56" s="11">
-        <v>2859629</v>
+        <v>3821907</v>
       </c>
       <c r="H56" s="11">
-        <v>3821907</v>
+        <v>3649234</v>
       </c>
       <c r="I56" s="11">
-        <v>3649234</v>
+        <v>4535200</v>
       </c>
       <c r="J56" s="11">
-        <v>4535200</v>
+        <v>5397458</v>
       </c>
       <c r="K56" s="11">
-        <v>5397458</v>
+        <v>6322308</v>
       </c>
       <c r="L56" s="11">
-        <v>6322308</v>
+        <v>7126290</v>
       </c>
       <c r="M56" s="11">
-        <v>7126290</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3512290</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>4205062</v>
+        <v>4134916</v>
       </c>
       <c r="E57" s="17">
-        <v>4134916</v>
+        <v>5163749</v>
       </c>
       <c r="F57" s="17">
-        <v>5163749</v>
+        <v>5987530</v>
       </c>
       <c r="G57" s="17">
-        <v>5987530</v>
+        <v>6949808</v>
       </c>
       <c r="H57" s="17">
-        <v>6949808</v>
+        <v>6817238</v>
       </c>
       <c r="I57" s="17">
-        <v>6817238</v>
+        <v>7703204</v>
       </c>
       <c r="J57" s="17">
-        <v>7703204</v>
+        <v>8565462</v>
       </c>
       <c r="K57" s="17">
-        <v>8565462</v>
+        <v>9490312</v>
       </c>
       <c r="L57" s="17">
-        <v>9490312</v>
+        <v>10294294</v>
       </c>
       <c r="M57" s="17">
-        <v>10294294</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>11477075</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>12131277</v>
+        <v>16353930</v>
       </c>
       <c r="E58" s="19">
-        <v>16353930</v>
+        <v>16040630</v>
       </c>
       <c r="F58" s="19">
-        <v>16040630</v>
+        <v>17731353</v>
       </c>
       <c r="G58" s="19">
-        <v>17731353</v>
+        <v>18893623</v>
       </c>
       <c r="H58" s="19">
-        <v>18893623</v>
+        <v>21024538</v>
       </c>
       <c r="I58" s="19">
-        <v>21024538</v>
+        <v>21040392</v>
       </c>
       <c r="J58" s="19">
-        <v>21040392</v>
+        <v>22069242</v>
       </c>
       <c r="K58" s="19">
-        <v>22069242</v>
+        <v>23518675</v>
       </c>
       <c r="L58" s="19">
-        <v>23518675</v>
+        <v>25064662</v>
       </c>
       <c r="M58" s="19">
-        <v>25064662</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>26037667</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/shishe/kehamda/balancesheet/quarterly.xlsx
+++ b/database/industries/shishe/kehamda/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kehamda\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\shishe\kehamda\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB541020-DF04-4FB6-8206-2AC373B0FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C9467-5BA1-4BBC-A4BA-7CE96671DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1464" windowWidth="20460" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>کهمدا-شیشه‌ همدان‌</t>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل سوم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1397-11-30 (2)</t>
+  </si>
+  <si>
+    <t>1398-02-04 (2)</t>
+  </si>
+  <si>
+    <t>1399-07-16 (9)</t>
+  </si>
+  <si>
+    <t>1398-07-29 (2)</t>
+  </si>
+  <si>
+    <t>1398-11-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-01-30</t>
+  </si>
+  <si>
+    <t>1400-07-12 (8)</t>
+  </si>
+  <si>
+    <t>1399-07-30</t>
+  </si>
+  <si>
     <t>1399-12-25 (2)</t>
   </si>
   <si>
@@ -88,7 +142,7 @@
     <t>1401-01-30</t>
   </si>
   <si>
-    <t>1402-01-30 (7)</t>
+    <t>1402-07-19 (9)</t>
   </si>
   <si>
     <t>1401-07-30</t>
@@ -98,6 +152,12 @@
   </si>
   <si>
     <t>1402-01-30</t>
+  </si>
+  <si>
+    <t>1402-07-30 (3)</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,9 +801,15 @@
     <col min="7" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
     <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="31" customWidth="1"/>
+    <col min="15" max="17" width="29" customWidth="1"/>
+    <col min="18" max="18" width="31" customWidth="1"/>
+    <col min="19" max="21" width="29" customWidth="1"/>
+    <col min="22" max="22" width="31" customWidth="1"/>
+    <col min="23" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -756,8 +822,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -772,8 +848,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -788,8 +874,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -802,8 +898,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -818,8 +924,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -834,8 +950,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -848,8 +974,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -884,44 +1020,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -934,10 +1130,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -950,190 +1156,350 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>354665</v>
+      </c>
+      <c r="E12" s="15">
+        <v>223972</v>
+      </c>
+      <c r="F12" s="15">
+        <v>308794</v>
+      </c>
+      <c r="G12" s="15">
+        <v>353397</v>
+      </c>
+      <c r="H12" s="15">
+        <v>271549</v>
+      </c>
+      <c r="I12" s="15">
+        <v>298195</v>
+      </c>
+      <c r="J12" s="15">
+        <v>344064</v>
+      </c>
+      <c r="K12" s="15">
+        <v>311007</v>
+      </c>
+      <c r="L12" s="15">
         <v>529795</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>495541</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>591983</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>590424</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>594854</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>554978</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>632808</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>436788</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>826886</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>763215</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>1073107</v>
+      </c>
+      <c r="W12" s="15">
+        <v>1343462</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>364986</v>
+      </c>
+      <c r="E13" s="11">
+        <v>539444</v>
+      </c>
+      <c r="F13" s="11">
+        <v>523699</v>
+      </c>
+      <c r="G13" s="11">
+        <v>504874</v>
+      </c>
+      <c r="H13" s="11">
+        <v>491425</v>
+      </c>
+      <c r="I13" s="11">
+        <v>437114</v>
+      </c>
+      <c r="J13" s="11">
+        <v>841664</v>
+      </c>
+      <c r="K13" s="11">
+        <v>841664</v>
+      </c>
+      <c r="L13" s="11">
         <v>1218460</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>1320443</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>1217528</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>1100002</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>1242202</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>1109455</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>1173765</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>1157783</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>1996259</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>1841869</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>2005368</v>
+      </c>
+      <c r="W13" s="11">
+        <v>2005368</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>439247</v>
+      </c>
+      <c r="E14" s="15">
+        <v>478890</v>
+      </c>
+      <c r="F14" s="15">
+        <v>579022</v>
+      </c>
+      <c r="G14" s="15">
+        <v>633796</v>
+      </c>
+      <c r="H14" s="15">
+        <v>735381</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1023827</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1081013</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1239451</v>
+      </c>
+      <c r="L14" s="15">
         <v>962497</v>
       </c>
-      <c r="E14" s="15">
+      <c r="M14" s="15">
         <v>915583</v>
       </c>
-      <c r="F14" s="15">
+      <c r="N14" s="15">
         <v>1230950</v>
       </c>
-      <c r="G14" s="15">
+      <c r="O14" s="15">
         <v>1764678</v>
       </c>
-      <c r="H14" s="15">
+      <c r="P14" s="15">
         <v>2057235</v>
       </c>
-      <c r="I14" s="15">
+      <c r="Q14" s="15">
         <v>2316488</v>
       </c>
-      <c r="J14" s="15">
+      <c r="R14" s="15">
         <v>2078872</v>
       </c>
-      <c r="K14" s="15">
+      <c r="S14" s="15">
         <v>3175322</v>
       </c>
-      <c r="L14" s="15">
+      <c r="T14" s="15">
         <v>3170711</v>
       </c>
-      <c r="M14" s="15">
+      <c r="U14" s="15">
         <v>4978442</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="15">
+        <v>6093244</v>
+      </c>
+      <c r="W14" s="15">
+        <v>6132802</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>324208</v>
+      </c>
+      <c r="E15" s="11">
+        <v>368838</v>
+      </c>
+      <c r="F15" s="11">
+        <v>357149</v>
+      </c>
+      <c r="G15" s="11">
+        <v>476027</v>
+      </c>
+      <c r="H15" s="11">
+        <v>583745</v>
+      </c>
+      <c r="I15" s="11">
+        <v>569216</v>
+      </c>
+      <c r="J15" s="11">
+        <v>554904</v>
+      </c>
+      <c r="K15" s="11">
+        <v>548329</v>
+      </c>
+      <c r="L15" s="11">
         <v>506419</v>
       </c>
-      <c r="E15" s="11">
+      <c r="M15" s="11">
         <v>601324</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>527675</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>839935</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>851521</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>1254355</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>1971786</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>2679205</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>3488906</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>3582467</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V15" s="11">
+        <v>3846113</v>
+      </c>
+      <c r="W15" s="11">
+        <v>4083872</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>24764</v>
+      </c>
+      <c r="E16" s="15">
+        <v>36419</v>
+      </c>
+      <c r="F16" s="15">
+        <v>31729</v>
+      </c>
+      <c r="G16" s="15">
+        <v>42841</v>
+      </c>
+      <c r="H16" s="15">
+        <v>66089</v>
+      </c>
+      <c r="I16" s="15">
+        <v>42420</v>
+      </c>
+      <c r="J16" s="15">
+        <v>51749</v>
+      </c>
+      <c r="K16" s="15">
+        <v>49396</v>
+      </c>
+      <c r="L16" s="15">
         <v>38470</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>170625</v>
       </c>
-      <c r="F16" s="15">
+      <c r="N16" s="15">
         <v>51366</v>
       </c>
-      <c r="G16" s="15">
+      <c r="O16" s="15">
         <v>277563</v>
       </c>
-      <c r="H16" s="15">
+      <c r="P16" s="15">
         <v>301314</v>
       </c>
-      <c r="I16" s="15">
+      <c r="Q16" s="15">
         <v>412530</v>
       </c>
-      <c r="J16" s="15">
+      <c r="R16" s="15">
         <v>494776</v>
       </c>
-      <c r="K16" s="15">
+      <c r="S16" s="15">
         <v>586192</v>
       </c>
-      <c r="L16" s="15">
+      <c r="T16" s="15">
         <v>461699</v>
       </c>
-      <c r="M16" s="15">
+      <c r="U16" s="15">
         <v>529394</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="15">
+        <v>364840</v>
+      </c>
+      <c r="W16" s="15">
+        <v>627605</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1155,129 +1521,249 @@
         <v>0</v>
       </c>
       <c r="J17" s="11">
-        <v>0</v>
+        <v>32777</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
       </c>
       <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
         <v>368559</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>368559</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="11">
+        <v>429662</v>
+      </c>
+      <c r="W17" s="11">
+        <v>430412</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>1507870</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1647563</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1800393</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2010935</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2148189</v>
+      </c>
+      <c r="I18" s="17">
+        <v>2370772</v>
+      </c>
+      <c r="J18" s="17">
+        <v>2906171</v>
+      </c>
+      <c r="K18" s="17">
+        <v>2989847</v>
+      </c>
+      <c r="L18" s="17">
         <v>3255641</v>
       </c>
-      <c r="E18" s="17">
+      <c r="M18" s="17">
         <v>3503516</v>
       </c>
-      <c r="F18" s="17">
+      <c r="N18" s="17">
         <v>3619502</v>
       </c>
-      <c r="G18" s="17">
+      <c r="O18" s="17">
         <v>4572602</v>
       </c>
-      <c r="H18" s="17">
+      <c r="P18" s="17">
         <v>5047126</v>
       </c>
-      <c r="I18" s="17">
+      <c r="Q18" s="17">
         <v>5647806</v>
       </c>
-      <c r="J18" s="17">
+      <c r="R18" s="17">
         <v>6352007</v>
       </c>
-      <c r="K18" s="17">
+      <c r="S18" s="17">
         <v>8035290</v>
       </c>
-      <c r="L18" s="17">
+      <c r="T18" s="17">
         <v>10313020</v>
       </c>
-      <c r="M18" s="17">
+      <c r="U18" s="17">
         <v>12063946</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="17">
+        <v>13812334</v>
+      </c>
+      <c r="W18" s="17">
+        <v>14623521</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>1013</v>
+      </c>
+      <c r="E19" s="11">
+        <v>422</v>
+      </c>
+      <c r="F19" s="11">
+        <v>384</v>
+      </c>
+      <c r="G19" s="11">
+        <v>535</v>
+      </c>
+      <c r="H19" s="11">
+        <v>5132</v>
+      </c>
+      <c r="I19" s="11">
+        <v>5132</v>
+      </c>
+      <c r="J19" s="11">
+        <v>4459</v>
+      </c>
+      <c r="K19" s="11">
+        <v>3933</v>
+      </c>
+      <c r="L19" s="11">
         <v>2604</v>
       </c>
-      <c r="E19" s="11">
+      <c r="M19" s="11">
         <v>2092</v>
       </c>
-      <c r="F19" s="11">
+      <c r="N19" s="11">
         <v>14243</v>
       </c>
-      <c r="G19" s="11">
+      <c r="O19" s="11">
         <v>14243</v>
       </c>
-      <c r="H19" s="11">
+      <c r="P19" s="11">
         <v>5289</v>
       </c>
-      <c r="I19" s="11">
+      <c r="Q19" s="11">
         <v>2822</v>
       </c>
-      <c r="J19" s="11">
+      <c r="R19" s="11">
         <v>1774</v>
       </c>
-      <c r="K19" s="11">
+      <c r="S19" s="11">
         <v>1891</v>
       </c>
-      <c r="L19" s="11">
+      <c r="T19" s="11">
         <v>2024</v>
       </c>
-      <c r="M19" s="11">
+      <c r="U19" s="11">
         <v>3626</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="11">
+        <v>4212</v>
+      </c>
+      <c r="W19" s="11">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>228428</v>
+      </c>
+      <c r="E20" s="15">
+        <v>230120</v>
+      </c>
+      <c r="F20" s="15">
+        <v>228682</v>
+      </c>
+      <c r="G20" s="15">
+        <v>248271</v>
+      </c>
+      <c r="H20" s="15">
+        <v>248270</v>
+      </c>
+      <c r="I20" s="15">
+        <v>286521</v>
+      </c>
+      <c r="J20" s="15">
+        <v>269444</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1104462</v>
+      </c>
+      <c r="L20" s="15">
         <v>1104934</v>
       </c>
-      <c r="E20" s="15">
+      <c r="M20" s="15">
         <v>1107202</v>
       </c>
-      <c r="F20" s="15">
+      <c r="N20" s="15">
         <v>1109085</v>
       </c>
-      <c r="G20" s="15">
+      <c r="O20" s="15">
         <v>1109085</v>
       </c>
-      <c r="H20" s="15">
+      <c r="P20" s="15">
         <v>1149481</v>
       </c>
-      <c r="I20" s="15">
+      <c r="Q20" s="15">
         <v>1181148</v>
       </c>
-      <c r="J20" s="15">
+      <c r="R20" s="15">
         <v>1178899</v>
       </c>
-      <c r="K20" s="15">
+      <c r="S20" s="15">
         <v>1178899</v>
       </c>
-      <c r="L20" s="15">
+      <c r="T20" s="15">
         <v>1240370</v>
       </c>
-      <c r="M20" s="15">
+      <c r="U20" s="15">
         <v>1287165</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="15">
+        <v>1257311</v>
+      </c>
+      <c r="W20" s="15">
+        <v>1265641</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1310,226 +1796,436 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>1498153</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1957501</v>
+      </c>
+      <c r="F22" s="15">
+        <v>3738834</v>
+      </c>
+      <c r="G22" s="15">
+        <v>4423951</v>
+      </c>
+      <c r="H22" s="15">
+        <v>5048543</v>
+      </c>
+      <c r="I22" s="15">
+        <v>5453060</v>
+      </c>
+      <c r="J22" s="15">
+        <v>7542564</v>
+      </c>
+      <c r="K22" s="15">
+        <v>7783892</v>
+      </c>
+      <c r="L22" s="15">
         <v>11587940</v>
       </c>
-      <c r="E22" s="15">
+      <c r="M22" s="15">
         <v>11064861</v>
       </c>
-      <c r="F22" s="15">
+      <c r="N22" s="15">
         <v>12641297</v>
       </c>
-      <c r="G22" s="15">
+      <c r="O22" s="15">
         <v>12848854</v>
       </c>
-      <c r="H22" s="15">
+      <c r="P22" s="15">
         <v>14368113</v>
       </c>
-      <c r="I22" s="15">
+      <c r="Q22" s="15">
         <v>13763744</v>
       </c>
-      <c r="J22" s="15">
+      <c r="R22" s="15">
         <v>14067310</v>
       </c>
-      <c r="K22" s="15">
+      <c r="S22" s="15">
         <v>13833801</v>
       </c>
-      <c r="L22" s="15">
+      <c r="T22" s="15">
         <v>12990985</v>
       </c>
-      <c r="M22" s="15">
+      <c r="U22" s="15">
         <v>12216556</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="15">
+        <v>17065609</v>
+      </c>
+      <c r="W22" s="15">
+        <v>16704819</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>6651</v>
+      </c>
+      <c r="E23" s="11">
+        <v>6647</v>
+      </c>
+      <c r="F23" s="11">
+        <v>6643</v>
+      </c>
+      <c r="G23" s="11">
+        <v>6639</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6635</v>
+      </c>
+      <c r="I23" s="11">
+        <v>6632</v>
+      </c>
+      <c r="J23" s="11">
+        <v>6628</v>
+      </c>
+      <c r="K23" s="11">
+        <v>6628</v>
+      </c>
+      <c r="L23" s="11">
         <v>13442</v>
       </c>
-      <c r="E23" s="11">
+      <c r="M23" s="11">
         <v>26240</v>
       </c>
-      <c r="F23" s="11">
+      <c r="N23" s="11">
         <v>32672</v>
       </c>
-      <c r="G23" s="11">
+      <c r="O23" s="11">
         <v>34285</v>
       </c>
-      <c r="H23" s="11">
+      <c r="P23" s="11">
         <v>87392</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>88239</v>
       </c>
-      <c r="J23" s="11">
+      <c r="R23" s="11">
         <v>88462</v>
       </c>
-      <c r="K23" s="11">
+      <c r="S23" s="11">
         <v>88004</v>
       </c>
-      <c r="L23" s="11">
+      <c r="T23" s="11">
         <v>86787</v>
       </c>
-      <c r="M23" s="11">
+      <c r="U23" s="11">
         <v>85584</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V23" s="11">
+        <v>85020</v>
+      </c>
+      <c r="W23" s="11">
+        <v>83763</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>173132</v>
+      </c>
+      <c r="G25" s="11">
+        <v>173132</v>
+      </c>
+      <c r="H25" s="11">
+        <v>173132</v>
+      </c>
+      <c r="I25" s="11">
+        <v>173132</v>
+      </c>
+      <c r="J25" s="11">
+        <v>242515</v>
+      </c>
+      <c r="K25" s="11">
+        <v>242515</v>
+      </c>
+      <c r="L25" s="11">
         <v>389369</v>
       </c>
-      <c r="E25" s="11">
+      <c r="M25" s="11">
         <v>336719</v>
       </c>
-      <c r="F25" s="11">
+      <c r="N25" s="11">
         <v>314554</v>
       </c>
-      <c r="G25" s="11">
+      <c r="O25" s="11">
         <v>314554</v>
       </c>
-      <c r="H25" s="11">
+      <c r="P25" s="11">
         <v>367137</v>
       </c>
-      <c r="I25" s="11">
+      <c r="Q25" s="11">
         <v>356633</v>
       </c>
-      <c r="J25" s="11">
+      <c r="R25" s="11">
         <v>380790</v>
       </c>
-      <c r="K25" s="11">
+      <c r="S25" s="11">
         <v>380790</v>
       </c>
-      <c r="L25" s="11">
+      <c r="T25" s="11">
         <v>431476</v>
       </c>
-      <c r="M25" s="11">
+      <c r="U25" s="11">
         <v>380790</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="11">
+        <v>617925</v>
+      </c>
+      <c r="W25" s="11">
+        <v>617925</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>1734245</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2194690</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4147675</v>
+      </c>
+      <c r="G26" s="17">
+        <v>4852528</v>
+      </c>
+      <c r="H26" s="17">
+        <v>5481712</v>
+      </c>
+      <c r="I26" s="17">
+        <v>5924477</v>
+      </c>
+      <c r="J26" s="17">
+        <v>8065610</v>
+      </c>
+      <c r="K26" s="17">
+        <v>9141430</v>
+      </c>
+      <c r="L26" s="17">
         <v>13098289</v>
       </c>
-      <c r="E26" s="17">
+      <c r="M26" s="17">
         <v>12537114</v>
       </c>
-      <c r="F26" s="17">
+      <c r="N26" s="17">
         <v>14111851</v>
       </c>
-      <c r="G26" s="17">
+      <c r="O26" s="17">
         <v>14321021</v>
       </c>
-      <c r="H26" s="17">
+      <c r="P26" s="17">
         <v>15977412</v>
       </c>
-      <c r="I26" s="17">
+      <c r="Q26" s="17">
         <v>15392586</v>
       </c>
-      <c r="J26" s="17">
+      <c r="R26" s="17">
         <v>15717235</v>
       </c>
-      <c r="K26" s="17">
+      <c r="S26" s="17">
         <v>15483385</v>
       </c>
-      <c r="L26" s="17">
+      <c r="T26" s="17">
         <v>14751642</v>
       </c>
-      <c r="M26" s="17">
+      <c r="U26" s="17">
         <v>13973721</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="17">
+        <v>19030077</v>
+      </c>
+      <c r="W26" s="17">
+        <v>18676360</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>3242115</v>
+      </c>
+      <c r="E27" s="19">
+        <v>3842253</v>
+      </c>
+      <c r="F27" s="19">
+        <v>5948068</v>
+      </c>
+      <c r="G27" s="19">
+        <v>6863463</v>
+      </c>
+      <c r="H27" s="19">
+        <v>7629901</v>
+      </c>
+      <c r="I27" s="19">
+        <v>8295249</v>
+      </c>
+      <c r="J27" s="19">
+        <v>10971781</v>
+      </c>
+      <c r="K27" s="19">
+        <v>12131277</v>
+      </c>
+      <c r="L27" s="19">
         <v>16353930</v>
       </c>
-      <c r="E27" s="19">
+      <c r="M27" s="19">
         <v>16040630</v>
       </c>
-      <c r="F27" s="19">
+      <c r="N27" s="19">
         <v>17731353</v>
       </c>
-      <c r="G27" s="19">
+      <c r="O27" s="19">
         <v>18893623</v>
       </c>
-      <c r="H27" s="19">
+      <c r="P27" s="19">
         <v>21024538</v>
       </c>
-      <c r="I27" s="19">
+      <c r="Q27" s="19">
         <v>21040392</v>
       </c>
-      <c r="J27" s="19">
+      <c r="R27" s="19">
         <v>22069242</v>
       </c>
-      <c r="K27" s="19">
+      <c r="S27" s="19">
         <v>23518675</v>
       </c>
-      <c r="L27" s="19">
+      <c r="T27" s="19">
         <v>25064662</v>
       </c>
-      <c r="M27" s="19">
+      <c r="U27" s="19">
         <v>26037667</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="19">
+        <v>32842411</v>
+      </c>
+      <c r="W27" s="19">
+        <v>33299881</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1542,226 +2238,416 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>238789</v>
+      </c>
+      <c r="E29" s="15">
+        <v>215027</v>
+      </c>
+      <c r="F29" s="15">
+        <v>270648</v>
+      </c>
+      <c r="G29" s="15">
+        <v>295025</v>
+      </c>
+      <c r="H29" s="15">
+        <v>278618</v>
+      </c>
+      <c r="I29" s="15">
+        <v>279898</v>
+      </c>
+      <c r="J29" s="15">
+        <v>306091</v>
+      </c>
+      <c r="K29" s="15">
+        <v>828536</v>
+      </c>
+      <c r="L29" s="15">
         <v>700608</v>
       </c>
-      <c r="E29" s="15">
+      <c r="M29" s="15">
         <v>900920</v>
       </c>
-      <c r="F29" s="15">
+      <c r="N29" s="15">
         <v>753095</v>
       </c>
-      <c r="G29" s="15">
+      <c r="O29" s="15">
         <v>749116</v>
       </c>
-      <c r="H29" s="15">
+      <c r="P29" s="15">
         <v>831096</v>
       </c>
-      <c r="I29" s="15">
+      <c r="Q29" s="15">
         <v>1132900</v>
       </c>
-      <c r="J29" s="15">
+      <c r="R29" s="15">
         <v>1036713</v>
       </c>
-      <c r="K29" s="15">
+      <c r="S29" s="15">
         <v>1269032</v>
       </c>
-      <c r="L29" s="15">
+      <c r="T29" s="15">
         <v>1241865</v>
       </c>
-      <c r="M29" s="15">
+      <c r="U29" s="15">
         <v>1537370</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V29" s="15">
+        <v>2160633</v>
+      </c>
+      <c r="W29" s="15">
+        <v>1962584</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>42522</v>
+      </c>
+      <c r="E31" s="15">
+        <v>32477</v>
+      </c>
+      <c r="F31" s="15">
+        <v>27278</v>
+      </c>
+      <c r="G31" s="15">
+        <v>38315</v>
+      </c>
+      <c r="H31" s="15">
+        <v>45623</v>
+      </c>
+      <c r="I31" s="15">
+        <v>90028</v>
+      </c>
+      <c r="J31" s="15">
+        <v>164584</v>
+      </c>
+      <c r="K31" s="15">
+        <v>150096</v>
+      </c>
+      <c r="L31" s="15">
         <v>231894</v>
       </c>
-      <c r="E31" s="15">
+      <c r="M31" s="15">
         <v>137126</v>
       </c>
-      <c r="F31" s="15">
+      <c r="N31" s="15">
         <v>131131</v>
       </c>
-      <c r="G31" s="15">
+      <c r="O31" s="15">
         <v>150942</v>
       </c>
-      <c r="H31" s="15">
+      <c r="P31" s="15">
         <v>153770</v>
       </c>
-      <c r="I31" s="15">
+      <c r="Q31" s="15">
         <v>181742</v>
       </c>
-      <c r="J31" s="15">
+      <c r="R31" s="15">
         <v>251546</v>
       </c>
-      <c r="K31" s="15">
+      <c r="S31" s="15">
         <v>211432</v>
       </c>
-      <c r="L31" s="15">
+      <c r="T31" s="15">
         <v>175717</v>
       </c>
-      <c r="M31" s="15">
+      <c r="U31" s="15">
         <v>263083</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="15">
+        <v>510718</v>
+      </c>
+      <c r="W31" s="15">
+        <v>353697</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>95905</v>
+      </c>
+      <c r="E32" s="11">
+        <v>135843</v>
+      </c>
+      <c r="F32" s="11">
+        <v>164370</v>
+      </c>
+      <c r="G32" s="11">
+        <v>221152</v>
+      </c>
+      <c r="H32" s="11">
+        <v>272696</v>
+      </c>
+      <c r="I32" s="11">
+        <v>334762</v>
+      </c>
+      <c r="J32" s="11">
+        <v>387242</v>
+      </c>
+      <c r="K32" s="11">
+        <v>470373</v>
+      </c>
+      <c r="L32" s="11">
         <v>608950</v>
       </c>
-      <c r="E32" s="11">
+      <c r="M32" s="11">
         <v>517528</v>
       </c>
-      <c r="F32" s="11">
+      <c r="N32" s="11">
         <v>550449</v>
       </c>
-      <c r="G32" s="11">
+      <c r="O32" s="11">
         <v>574335</v>
       </c>
-      <c r="H32" s="11">
+      <c r="P32" s="11">
         <v>660784</v>
       </c>
-      <c r="I32" s="11">
+      <c r="Q32" s="11">
         <v>454021</v>
       </c>
-      <c r="J32" s="11">
+      <c r="R32" s="11">
         <v>732989</v>
       </c>
-      <c r="K32" s="11">
+      <c r="S32" s="11">
         <v>861454</v>
       </c>
-      <c r="L32" s="11">
+      <c r="T32" s="11">
         <v>857579</v>
       </c>
-      <c r="M32" s="11">
+      <c r="U32" s="11">
         <v>1132517</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="11">
+        <v>1058137</v>
+      </c>
+      <c r="W32" s="11">
+        <v>1187767</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>185768</v>
+      </c>
+      <c r="E33" s="15">
+        <v>152801</v>
+      </c>
+      <c r="F33" s="15">
+        <v>111497</v>
+      </c>
+      <c r="G33" s="15">
+        <v>85765</v>
+      </c>
+      <c r="H33" s="15">
+        <v>349249</v>
+      </c>
+      <c r="I33" s="15">
+        <v>236451</v>
+      </c>
+      <c r="J33" s="15">
+        <v>195187</v>
+      </c>
+      <c r="K33" s="15">
+        <v>99488</v>
+      </c>
+      <c r="L33" s="15">
         <v>1058695</v>
       </c>
-      <c r="E33" s="15">
+      <c r="M33" s="15">
         <v>403552</v>
       </c>
-      <c r="F33" s="15">
+      <c r="N33" s="15">
         <v>243196</v>
       </c>
-      <c r="G33" s="15">
+      <c r="O33" s="15">
         <v>173766</v>
       </c>
-      <c r="H33" s="15">
+      <c r="P33" s="15">
         <v>1284951</v>
       </c>
-      <c r="I33" s="15">
+      <c r="Q33" s="15">
         <v>991159</v>
       </c>
-      <c r="J33" s="15">
+      <c r="R33" s="15">
         <v>789544</v>
       </c>
-      <c r="K33" s="15">
+      <c r="S33" s="15">
         <v>741995</v>
       </c>
-      <c r="L33" s="15">
+      <c r="T33" s="15">
         <v>1342565</v>
       </c>
-      <c r="M33" s="15">
+      <c r="U33" s="15">
         <v>1064814</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="15">
+        <v>506270</v>
+      </c>
+      <c r="W33" s="15">
+        <v>380254</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>24000</v>
+      </c>
+      <c r="F34" s="11">
+        <v>10675</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>40000</v>
+      </c>
+      <c r="J34" s="11">
+        <v>64491</v>
+      </c>
+      <c r="K34" s="11">
+        <v>77373</v>
+      </c>
+      <c r="L34" s="11">
         <v>19032</v>
       </c>
-      <c r="E34" s="11">
+      <c r="M34" s="11">
         <v>68686</v>
       </c>
-      <c r="F34" s="11">
+      <c r="N34" s="11">
         <v>276842</v>
       </c>
-      <c r="G34" s="11">
+      <c r="O34" s="11">
         <v>513567</v>
       </c>
-      <c r="H34" s="11">
+      <c r="P34" s="11">
         <v>2676172</v>
       </c>
-      <c r="I34" s="11">
+      <c r="Q34" s="11">
         <v>2573798</v>
       </c>
-      <c r="J34" s="11">
+      <c r="R34" s="11">
         <v>2290013</v>
       </c>
-      <c r="K34" s="11">
+      <c r="S34" s="11">
         <v>3455574</v>
       </c>
-      <c r="L34" s="11">
+      <c r="T34" s="11">
         <v>4032439</v>
       </c>
-      <c r="M34" s="11">
+      <c r="U34" s="11">
         <v>4922096</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V34" s="11">
+        <v>6849365</v>
+      </c>
+      <c r="W34" s="11">
+        <v>7061543</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1794,10 +2680,40 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1830,46 +2746,106 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>562984</v>
+      </c>
+      <c r="E37" s="17">
+        <v>560148</v>
+      </c>
+      <c r="F37" s="17">
+        <v>584468</v>
+      </c>
+      <c r="G37" s="17">
+        <v>640257</v>
+      </c>
+      <c r="H37" s="17">
+        <v>946186</v>
+      </c>
+      <c r="I37" s="17">
+        <v>981139</v>
+      </c>
+      <c r="J37" s="17">
+        <v>1117595</v>
+      </c>
+      <c r="K37" s="17">
+        <v>1625866</v>
+      </c>
+      <c r="L37" s="17">
         <v>2619179</v>
       </c>
-      <c r="E37" s="17">
+      <c r="M37" s="17">
         <v>2027812</v>
       </c>
-      <c r="F37" s="17">
+      <c r="N37" s="17">
         <v>1954713</v>
       </c>
-      <c r="G37" s="17">
+      <c r="O37" s="17">
         <v>2161726</v>
       </c>
-      <c r="H37" s="17">
+      <c r="P37" s="17">
         <v>5606773</v>
       </c>
-      <c r="I37" s="17">
+      <c r="Q37" s="17">
         <v>5333620</v>
       </c>
-      <c r="J37" s="17">
+      <c r="R37" s="17">
         <v>5100805</v>
       </c>
-      <c r="K37" s="17">
+      <c r="S37" s="17">
         <v>6539487</v>
       </c>
-      <c r="L37" s="17">
+      <c r="T37" s="17">
         <v>7650165</v>
       </c>
-      <c r="M37" s="17">
+      <c r="U37" s="17">
         <v>8919880</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V37" s="17">
+        <v>11085123</v>
+      </c>
+      <c r="W37" s="17">
+        <v>10945845</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1902,190 +2878,370 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>40</v>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>704462</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1119900</v>
+      </c>
+      <c r="F40" s="11">
+        <v>2757082</v>
+      </c>
+      <c r="G40" s="11">
+        <v>3366651</v>
+      </c>
+      <c r="H40" s="11">
+        <v>3929175</v>
+      </c>
+      <c r="I40" s="11">
+        <v>4224850</v>
+      </c>
+      <c r="J40" s="11">
+        <v>6147726</v>
+      </c>
+      <c r="K40" s="11">
+        <v>6282860</v>
+      </c>
+      <c r="L40" s="11">
         <v>9585554</v>
       </c>
-      <c r="E40" s="11">
+      <c r="M40" s="11">
         <v>8831347</v>
       </c>
-      <c r="F40" s="11">
+      <c r="N40" s="11">
         <v>9769940</v>
       </c>
-      <c r="G40" s="11">
+      <c r="O40" s="11">
         <v>9756918</v>
       </c>
-      <c r="H40" s="11">
+      <c r="P40" s="11">
         <v>8581301</v>
       </c>
-      <c r="I40" s="11">
+      <c r="Q40" s="11">
         <v>7979124</v>
       </c>
-      <c r="J40" s="11">
+      <c r="R40" s="11">
         <v>8373719</v>
       </c>
-      <c r="K40" s="11">
+      <c r="S40" s="11">
         <v>7450477</v>
       </c>
-      <c r="L40" s="11">
+      <c r="T40" s="11">
         <v>7090031</v>
       </c>
-      <c r="M40" s="11">
+      <c r="U40" s="11">
         <v>5601544</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V40" s="11">
+        <v>7534479</v>
+      </c>
+      <c r="W40" s="11">
+        <v>6803113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>8984</v>
+      </c>
+      <c r="E41" s="15">
+        <v>10185</v>
+      </c>
+      <c r="F41" s="15">
+        <v>11431</v>
+      </c>
+      <c r="G41" s="15">
+        <v>13335</v>
+      </c>
+      <c r="H41" s="15">
+        <v>10762</v>
+      </c>
+      <c r="I41" s="15">
+        <v>13305</v>
+      </c>
+      <c r="J41" s="15">
+        <v>13719</v>
+      </c>
+      <c r="K41" s="15">
+        <v>17489</v>
+      </c>
+      <c r="L41" s="15">
         <v>14281</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>17722</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>19170</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>25171</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>19226</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>24444</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>29256</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>38399</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>30172</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>39168</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>38784</v>
+      </c>
+      <c r="W41" s="15">
+        <v>51181</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>713446</v>
+      </c>
+      <c r="E42" s="19">
+        <v>1130085</v>
+      </c>
+      <c r="F42" s="19">
+        <v>2768513</v>
+      </c>
+      <c r="G42" s="19">
+        <v>3379986</v>
+      </c>
+      <c r="H42" s="19">
+        <v>3939937</v>
+      </c>
+      <c r="I42" s="19">
+        <v>4238155</v>
+      </c>
+      <c r="J42" s="19">
+        <v>6161445</v>
+      </c>
+      <c r="K42" s="19">
+        <v>6300349</v>
+      </c>
+      <c r="L42" s="19">
         <v>9599835</v>
       </c>
-      <c r="E42" s="19">
+      <c r="M42" s="19">
         <v>8849069</v>
       </c>
-      <c r="F42" s="19">
+      <c r="N42" s="19">
         <v>9789110</v>
       </c>
-      <c r="G42" s="19">
+      <c r="O42" s="19">
         <v>9782089</v>
       </c>
-      <c r="H42" s="19">
+      <c r="P42" s="19">
         <v>8600527</v>
       </c>
-      <c r="I42" s="19">
+      <c r="Q42" s="19">
         <v>8003568</v>
       </c>
-      <c r="J42" s="19">
+      <c r="R42" s="19">
         <v>8402975</v>
       </c>
-      <c r="K42" s="19">
+      <c r="S42" s="19">
         <v>7488876</v>
       </c>
-      <c r="L42" s="19">
+      <c r="T42" s="19">
         <v>7120203</v>
       </c>
-      <c r="M42" s="19">
+      <c r="U42" s="19">
         <v>5640712</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V42" s="19">
+        <v>7573263</v>
+      </c>
+      <c r="W42" s="19">
+        <v>6854294</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>1276430</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1690233</v>
+      </c>
+      <c r="F43" s="17">
+        <v>3352981</v>
+      </c>
+      <c r="G43" s="17">
+        <v>4020243</v>
+      </c>
+      <c r="H43" s="17">
+        <v>4886123</v>
+      </c>
+      <c r="I43" s="17">
+        <v>5219294</v>
+      </c>
+      <c r="J43" s="17">
+        <v>7279040</v>
+      </c>
+      <c r="K43" s="17">
+        <v>7926215</v>
+      </c>
+      <c r="L43" s="17">
         <v>12219014</v>
       </c>
-      <c r="E43" s="17">
+      <c r="M43" s="17">
         <v>10876881</v>
       </c>
-      <c r="F43" s="17">
+      <c r="N43" s="17">
         <v>11743823</v>
       </c>
-      <c r="G43" s="17">
+      <c r="O43" s="17">
         <v>11943815</v>
       </c>
-      <c r="H43" s="17">
+      <c r="P43" s="17">
         <v>14207300</v>
       </c>
-      <c r="I43" s="17">
+      <c r="Q43" s="17">
         <v>13337188</v>
       </c>
-      <c r="J43" s="17">
+      <c r="R43" s="17">
         <v>13503780</v>
       </c>
-      <c r="K43" s="17">
+      <c r="S43" s="17">
         <v>14028363</v>
       </c>
-      <c r="L43" s="17">
+      <c r="T43" s="17">
         <v>14770368</v>
       </c>
-      <c r="M43" s="17">
+      <c r="U43" s="17">
         <v>14560592</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V43" s="17">
+        <v>18658386</v>
+      </c>
+      <c r="W43" s="17">
+        <v>17800139</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2098,10 +3254,20 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2111,33 +3277,63 @@
         <v>1152000</v>
       </c>
       <c r="F45" s="15">
+        <v>1152000</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1152000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1152000</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1152000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1152000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1152000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>1152000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>1152000</v>
+      </c>
+      <c r="N45" s="15">
         <v>2880000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="O45" s="15">
         <v>2880000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="P45" s="15">
         <v>2880000</v>
       </c>
-      <c r="I45" s="15">
+      <c r="Q45" s="15">
         <v>2880000</v>
       </c>
-      <c r="J45" s="15">
+      <c r="R45" s="15">
         <v>2880000</v>
       </c>
-      <c r="K45" s="15">
+      <c r="S45" s="15">
         <v>2880000</v>
       </c>
-      <c r="L45" s="15">
+      <c r="T45" s="15">
         <v>2880000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="U45" s="15">
         <v>7500000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V45" s="15">
+        <v>7500000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2170,46 +3366,106 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
         <v>1000072</v>
       </c>
-      <c r="E47" s="15">
+      <c r="M47" s="15">
         <v>1698324</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2242,17 +3498,47 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
@@ -2278,46 +3564,106 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>48627</v>
+      </c>
+      <c r="E50" s="11">
+        <v>57944</v>
+      </c>
+      <c r="F50" s="11">
+        <v>80097</v>
+      </c>
+      <c r="G50" s="11">
+        <v>80097</v>
+      </c>
+      <c r="H50" s="11">
+        <v>104812</v>
+      </c>
+      <c r="I50" s="11">
         <v>115200</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
+        <v>115200</v>
+      </c>
+      <c r="K50" s="11">
+        <v>115200</v>
+      </c>
+      <c r="L50" s="11">
+        <v>115200</v>
+      </c>
+      <c r="M50" s="11">
         <v>202794</v>
       </c>
-      <c r="F50" s="11">
+      <c r="N50" s="11">
         <v>247897</v>
       </c>
-      <c r="G50" s="11">
+      <c r="O50" s="11">
         <v>247897</v>
       </c>
-      <c r="H50" s="11">
+      <c r="P50" s="11">
         <v>288000</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>288000</v>
       </c>
-      <c r="J50" s="11">
+      <c r="R50" s="11">
         <v>288000</v>
       </c>
-      <c r="K50" s="11">
+      <c r="S50" s="11">
         <v>288000</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>288000</v>
       </c>
-      <c r="M50" s="11">
+      <c r="U50" s="11">
         <v>464781</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>604928</v>
+      </c>
+      <c r="W50" s="11">
+        <v>670714</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2350,46 +3696,106 @@
       <c r="M51" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>4</v>
+      </c>
+      <c r="O51" s="15">
+        <v>4</v>
+      </c>
+      <c r="P51" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>4</v>
+      </c>
+      <c r="R51" s="15">
+        <v>4</v>
+      </c>
+      <c r="S51" s="15">
+        <v>4</v>
+      </c>
+      <c r="T51" s="15">
+        <v>4</v>
+      </c>
+      <c r="U51" s="15">
+        <v>4</v>
+      </c>
+      <c r="V51" s="15">
+        <v>4</v>
+      </c>
+      <c r="W51" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>40</v>
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2422,46 +3828,106 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>40</v>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2494,116 +3960,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>765054</v>
+      </c>
+      <c r="E56" s="11">
+        <v>942072</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1362986</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1611119</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1486962</v>
+      </c>
+      <c r="I56" s="11">
+        <v>1808751</v>
+      </c>
+      <c r="J56" s="11">
+        <v>2425537</v>
+      </c>
+      <c r="K56" s="11">
+        <v>2937858</v>
+      </c>
+      <c r="L56" s="11">
         <v>1867640</v>
       </c>
-      <c r="E56" s="11">
+      <c r="M56" s="11">
         <v>2110627</v>
       </c>
-      <c r="F56" s="11">
+      <c r="N56" s="11">
         <v>2859629</v>
       </c>
-      <c r="G56" s="11">
+      <c r="O56" s="11">
         <v>3821907</v>
       </c>
-      <c r="H56" s="11">
+      <c r="P56" s="11">
         <v>3649234</v>
       </c>
-      <c r="I56" s="11">
+      <c r="Q56" s="11">
         <v>4535200</v>
       </c>
-      <c r="J56" s="11">
+      <c r="R56" s="11">
         <v>5397458</v>
       </c>
-      <c r="K56" s="11">
+      <c r="S56" s="11">
         <v>6322308</v>
       </c>
-      <c r="L56" s="11">
+      <c r="T56" s="11">
         <v>7126290</v>
       </c>
-      <c r="M56" s="11">
+      <c r="U56" s="11">
         <v>3512290</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V56" s="11">
+        <v>6079093</v>
+      </c>
+      <c r="W56" s="11">
+        <v>7329024</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>1965685</v>
+      </c>
+      <c r="E57" s="17">
+        <v>2152020</v>
+      </c>
+      <c r="F57" s="17">
+        <v>2595087</v>
+      </c>
+      <c r="G57" s="17">
+        <v>2843220</v>
+      </c>
+      <c r="H57" s="17">
+        <v>2743778</v>
+      </c>
+      <c r="I57" s="17">
+        <v>3075955</v>
+      </c>
+      <c r="J57" s="17">
+        <v>3692741</v>
+      </c>
+      <c r="K57" s="17">
+        <v>4205062</v>
+      </c>
+      <c r="L57" s="17">
         <v>4134916</v>
       </c>
-      <c r="E57" s="17">
+      <c r="M57" s="17">
         <v>5163749</v>
       </c>
-      <c r="F57" s="17">
+      <c r="N57" s="17">
         <v>5987530</v>
       </c>
-      <c r="G57" s="17">
+      <c r="O57" s="17">
         <v>6949808</v>
       </c>
-      <c r="H57" s="17">
+      <c r="P57" s="17">
         <v>6817238</v>
       </c>
-      <c r="I57" s="17">
+      <c r="Q57" s="17">
         <v>7703204</v>
       </c>
-      <c r="J57" s="17">
+      <c r="R57" s="17">
         <v>8565462</v>
       </c>
-      <c r="K57" s="17">
+      <c r="S57" s="17">
         <v>9490312</v>
       </c>
-      <c r="L57" s="17">
+      <c r="T57" s="17">
         <v>10294294</v>
       </c>
-      <c r="M57" s="17">
+      <c r="U57" s="17">
         <v>11477075</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V57" s="17">
+        <v>14184025</v>
+      </c>
+      <c r="W57" s="17">
+        <v>15499742</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>3242115</v>
+      </c>
+      <c r="E58" s="19">
+        <v>3842253</v>
+      </c>
+      <c r="F58" s="19">
+        <v>5948068</v>
+      </c>
+      <c r="G58" s="19">
+        <v>6863463</v>
+      </c>
+      <c r="H58" s="19">
+        <v>7629901</v>
+      </c>
+      <c r="I58" s="19">
+        <v>8295249</v>
+      </c>
+      <c r="J58" s="19">
+        <v>10971781</v>
+      </c>
+      <c r="K58" s="19">
+        <v>12131277</v>
+      </c>
+      <c r="L58" s="19">
         <v>16353930</v>
       </c>
-      <c r="E58" s="19">
+      <c r="M58" s="19">
         <v>16040630</v>
       </c>
-      <c r="F58" s="19">
+      <c r="N58" s="19">
         <v>17731353</v>
       </c>
-      <c r="G58" s="19">
+      <c r="O58" s="19">
         <v>18893623</v>
       </c>
-      <c r="H58" s="19">
+      <c r="P58" s="19">
         <v>21024538</v>
       </c>
-      <c r="I58" s="19">
+      <c r="Q58" s="19">
         <v>21040392</v>
       </c>
-      <c r="J58" s="19">
+      <c r="R58" s="19">
         <v>22069242</v>
       </c>
-      <c r="K58" s="19">
+      <c r="S58" s="19">
         <v>23518675</v>
       </c>
-      <c r="L58" s="19">
+      <c r="T58" s="19">
         <v>25064662</v>
       </c>
-      <c r="M58" s="19">
+      <c r="U58" s="19">
         <v>26037667</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V58" s="19">
+        <v>32842411</v>
+      </c>
+      <c r="W58" s="19">
+        <v>33299881</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2616,6 +4202,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
